--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">4982</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">5532</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="1476">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
@@ -2204,2233 +2204,2245 @@
     <t xml:space="preserve">不快な笑顔「カザリ」</t>
   </si>
   <si>
+    <t xml:space="preserve">「ボクを信じて…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halycoma00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">夜明けを待つ者「真耶」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「一つの時代、一つの灯火、その足跡をここに」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Snowy" the Battle Scarred Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">料理に命をささげた「オウエ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「生きて、喰って、死ぬ、最高だぜ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さすらいの釣り人「Lua」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「良い一日を！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷静沈着の男「デイ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「「懐に一切れのパンさえあればどこまでだって歩いていける」って、誰が言った言葉だったか……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異端の冒険者「ナナシノ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">井戸水を求め彷徨うプチ「鋼缶」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月に踊る者「ルナティリス」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「信じて、前へ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寵愛の祭壇「ミズ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Wandering Minstrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Always look toward brighter days!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お散歩日和「さんぽどき」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「一般冒险者U」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「啊？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蝸牛先輩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Spencer" The Eternal Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Darien" the Gastropodly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senko san</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">癒し系戦車「きうななしき」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Richard" A Fool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モグラを追う者「チャカ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「また騙されたな」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18歳JD「シイタケ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「シイタケお兄ちゃんだよぉ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「射手座の守護者」ミューズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「非モテだけどクッキー焼いたよ～」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">揺蕩う者「ナンサン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「今日もいい天気だな」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「今日からまた日記をつけることにしよう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">忠プチ「たた」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Rusterday" True genius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3C Jian Da Lao Ba Laugh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as long as you give it this name. If you can make it a special weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">放浪する機械「ジャンバー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ガチャガチャ……カチｯ……ピーピーピー！エラーエラー！！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悠久の旅人「七空」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「蘇生中…蘇生中…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">楽天的な「ソルナレク」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「コボルトスレイヤー」名無し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「両手持ちには気をつけろ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">破壊の天使「ウィローサ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sasha" The Clueless Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イッツ・マイ・カレー「トモヒロ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">働く鼠「ナメタケ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「労働はやはり身体に悪い……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たれみみの「まり」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">慈悲の手「ゆき」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「さて、行こうぜ。相棒」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何者かになりたかった「マナフォ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「失う前に、大切なんだって気づけるといいな」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子羊「御神酒」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">夢の世界に漂う者「Ryo」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「羊が一匹、羊が二匹……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">傷付いた「イナバ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Raquesis" Loving Righteousness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I'll find the cursed halberd that stops time, or die trying! After that, I'll go home and eat a nice apple parfait..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜を求めし風「ツヅラ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「わたしが りゅうきしだ！！ りゅうきしと ひりゅうがぜつめつだ？ でたらめを いうな！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mameta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ガチャに勝てない「aoxola」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隻腕の白狼「ガリバス」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「イキりカボチャ撲滅活動実施中！君も一緒に害悪カボチャ共を駆除しよう！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黒猫亭の猫「ちろあこ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明日を信じる者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「これさえ実れば」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銀をまといし微笑み「ヨル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お前も目的を持って、この地を訪れたんだな。まあ、お互い頑張ろうぜ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迷走する期待のホープ「ミッタン＝カーズゥイ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「俺このフィールドワークが終わったら学位論文書くんだ……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お野菜大好き「にんじんのすけ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キキエイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅する妖精「カヤ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「未だ見ぬ世界へ導いて！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silica Aruass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とろっぴ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よつばちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休暇を満喫する「トム」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「短い休暇だったな……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幸運な愚か者「イーロイ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「今日はツイてるな！！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">終わりなき雪月花「しゃっきょう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妄想に呑まれたトナカイ「つぇる」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペリドットを狩る吟遊詩人「ツベロサ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ワンちゃんが群れている！あの中にうちの子がいるかも……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爛れを喰らう者「ジョン・レオパルド」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「儚い光が暗く不安定で曖昧で暗い道の足元を照らしてくれる…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なとりさん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄昏の戦士「ケルヴァン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「それでもあなたの道を行け」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集める者「baron」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ま、まだインベントリが破裂する程のアイテムを集めてないのに…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人になりたいはじけ魚「nsBeee」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">釣りまくる研究者「Okazu」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「女神様…せめて最期にこの身を捧げま…しまった、まだ死体じゃないから…無念」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボロボロな「T2023」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無気力な守護者「カズキ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「q!」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふたばの支配者「としんか」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あうぅ・・・限定ガチャでピックアップキャラが天井まで出なかった・・・」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">殺したいほど愛したい「オバケ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独身貴族「ひげ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ここが私の旅の終着点、この世界は楽しかった、唯一の心残りは…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yuri" The Yuricon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚無主義の代表「チェルベス」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「目的を思い出せ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彼方者の「エタンセル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「かんちゅんかんちゅんかんまんしょぉ！（訳：良い冒険の旅を！）」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただの妹「toroge」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しい緋色の目「みどりむし」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神のための瞳「スイレン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「あんなに祈ったのに……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時を溶かす灰刃「アナザー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">車輪の獣狩り「シオン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この先、光が必要だ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ランタウロス「acht-aale」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「今日は目出度い！乾杯だ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Leythn" Lunatic Tactician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エーテル病の末路「サノ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可愛すぎる腐肉「べるた」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微笑まぬ久遠「ニポポ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在る白兎「メヴィエ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バトルスクール出身の「づえ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「覚えておけ、敵のゲートは「下」だ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Straw” The Cursed One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星の娘「あん箱」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「各地の祭りの記憶と共に、このランタンがあなたの暖かな夜を照らします」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とてもかわいい犬「チョコ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竹輪大明神「コロロ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ちくわすら持ってねぇ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうしようもない僕「だったん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「旅する者の灯火に」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Starborn" The Mushy Putit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sage of the Moonlight Blade "Hachimitsu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"It is our duty to witness the final moments of these myriad worlds."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長靴を履いた霊猫「リドル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無を追いし旅人「テチ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「そのランタンの灯は火ではなく、ランタンに閉じ込められた冒険者の魂が蠢いている姿である」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野生の餅「アンビン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ギャンブル・オブ・ホープ「レジ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「何が出るかな？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">罰に苦しむ幻影「あさのま」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白き花一華「アネモネ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「こっちじゃ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">経穴を突くもの「つぼりん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「良き指圧師になりたかった……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Natsugu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust Snail "reblank"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嫁猫「ちひろ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shadow" Barkface Fluffybutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能性の狩り人「トモ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「可能性はあった・・・」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nelson"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest here for as long as you like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Rena" Yandere Doll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心ある放浪者「ウード」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ああ、自由よ。私の代わりに、これを。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幸せを集める旅「ハワワ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ハッピーになりたい」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lyan" The Bondsmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The ancient words shall be spoken again... Life before death, strength before weakness and journey before destination."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Idola" the Cute Wacko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I'm so so SO excited for today's concert! It's gonna be my first time performing in front of everybody! I hope they all like it."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虎の威を借る「キツネ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"肉"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イレギュラーハンター「エックス」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どうしてイレギュラーは発生するんだろう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血染めの紅葉「モミジ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打ち揚げられた海老「reet」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「こんな所で君に会えるなんて、嬉しいねぇ…。私を食べていくかい？とても美味しいよ…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑の髪の少年「らっち」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「穏やかに とこしえに 幸せを願う」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mUiUm" The Radiant Smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シズク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crayll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大地に染み渡る「あーびん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砂糖まみれの「サキ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星月の欠片「九月。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Laeser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Let the flame burn and remember me. Dust to Ash, go forth and have fun."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yang"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天城総司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「生きたかったが、生き絶えた。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asagiri Otomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">のいあー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この時を長年待っていたんだ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緩やかな時間「パティシア」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クッキー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tsubasa" The Fennec Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I will find you my love, if it is the last thing I do"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の孤独「クドコ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やっと見つけた巻物なのにもう読む力も残っていないの、この巻物を読んだ人は大切に…仲良くしてあげてね…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非常食</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レーシャ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迷い猫「ニペ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不吉な頭の「ハゲ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紛い物の読書家「蓬」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「この明りは実に読書のおともに最適だ。気に食わなかったらくべてしまえるもの」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蒸留されし雲「オーリオル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"LifeFF" The White Rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竟天の妹「ベル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深淵より覗きし双眸「クロ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やっぱり弟「kokoax」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お姉ちゃんっていいよね」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脳を機械に接ぐ者「エマ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「脳デバイスの過負荷を検知、で、デバッグしててててて…ｶﾞｯﾋﾟｯ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性戦士「らみたろう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なまこを煮込んだうどん「リッキー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「………！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">種馬「エスロック」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHA5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ジュア様のエロ本が欲しかった……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">路端の虹色「アコタ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「死ぬほど飲みたい気分だったんだ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翌桧の杖「テオドール」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SabaTea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kupfernickel" The Copper Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Melt it, EVERYTHING!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fresky" The Lost Popoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犬を追いかける狂人「イヌオ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「夢でみたんだ…どこかにあるはずなんだ…犬の…犬だけの楽園…妹犬の館が…どこかに…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スライムマイマイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古き星「ニルサ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「さあ、目覚めの時だ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master†Z†</t>
+  </si>
+  <si>
+    <t xml:space="preserve">774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山の神「ふじさん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「山登り日和だ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外道「カヤノ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野菜好き「海森」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Clara"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I'll always be here for you."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狐好きの夢想家「フィクス」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どうか次はミフかネフに…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ひりつく妹「シズマ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青緑のあいつ「プルパー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「’双盾で弓使い’しようとしたら盾が呪われてて外せないまま餓死。皿に頭突っ込んで食べるなど紳士のなすべきじゃなかろう！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Stabby" The Assassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">混沌の放浪者「バクルド」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「まあ、ぼちぼちいい放浪だった」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roroky Lalaoky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Rider? I barely even know her!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Putittoro" The Devoted Putit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Malaath" the happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda Muda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「プリン」怪鳥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刹那「シュヴェルト」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「鏡……ともしび……とらわれ……天使……。 ……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煙鏡に捧ぐ短剣「シュトカルト」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Martin" The Sleepy One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I love to tinker at night!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"MegaNightshark" the wishing well taster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams "Mesherada" Trinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Drifter" The Lord Harvester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yeeks aren't the only risk down here..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Leah" The Once Beloved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">女神の抱き枕を抱えた「赤鳥ヴィズ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">風化した足跡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「……最後の一口」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">塩に素晴らしい耐性がある「おみくじ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪食「ドラゴン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「金貨以外は口にしたくないね！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漆黒「ユウギリ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「寝なくても明日は来る」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在しない者「余白アマシロ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「narrative is now here」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファントムレッド「アナスタシア」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiridaema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母から受け継いだ氷河「ミシュラ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お前を見ている」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かみかくし「だのみん」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Apitaya" The Indecisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nathaniel" The Witless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Gourdman" The Mutant Circus Performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"They didn't tell me this would happen!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未熟者の末路「あなた」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「何度でも立ち上がる！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whose name is Cain de Ticano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法の書の信徒ピタパン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcadeias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"EVERYBODY NEEDS SOMEBODY."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nina" The inmortal Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mochi" The Pancake Thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫のような風「チョコ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星屑の虹「ハティ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洞房花燭「キリエ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Justin" Lord of a Distant Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I wont go down without a fight!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇術師「ナグ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ななしの繁栄を祝して！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プリティーダークネス「ネモ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野良猫「リリーベル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シャイな子犬「ふく」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明日を信じる不滅「ホスビン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「違う、これじゃない！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">愚者の末路「インサニア」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「すごいさかなの中の人」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「私の亡骸を見つけた者に頼みがある。魚が好きな神様にこれを届けてほしい。まだ新鮮なうちに！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたを待ち侘びた者「？？？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やっと見つけてくれたか。お前に渡したい物があったのだ。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悟った愚者「mojito_can」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「（皺の寄った小さな紙片に、落ち着きのある字が書かれている。）紙が無いからって、武器で拭いちゃだめね。」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonne Walkure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Vici"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I just want to lay down"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">銘探偵「バリバリバリツ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Devon" The Newbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"I'll become a hero of legend for sure!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日も癒されたい「レイド」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それでも逃避行「ミノト」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「来世に期待」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">＊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「やぁ、よく見つけたね……さぁ、掘ってごらん……正丁」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Nil" The Grateful Son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mom, I finally got the medicine for you!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carind Nivans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There's a broken watch near the corpse, it's stuck at 21:37"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖怪「ブンブン茶釜」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「タヌキじゃないよ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目にハートマークが浮かぶ「ハルナ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lily" Flowering Nightmare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mika" The Sleepy Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">驚異の子「ジーク」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「そうだろう、ーーーーーさん、見ててくれよ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"First Snow" Associated Snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「メルツ」駆け出し魔法使い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「騙された……こんな危ないとこじゃなくて家で読めば良かった……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Azzalin" The One Kink Shamed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星と翼の亡霊｢シンゴロ〜｣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">｢いつかソラへ…｣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">癒しの女神の信奉者「ANI」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兄のために這い上がり続ける「ショコラーデ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へたれの吟遊詩人「ノキ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「ふかふかパンの中で圧死したい」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の迷い人「ソイヤ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「一瞬で良い…混沌の世に一瞬の光を…」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Olin" The Fighting Rebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Teehee~"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Bob"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空の捕喰者「シャチ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「月が照らす桜小路で出会えた君に、桜吹雪の朝日を捧げよう」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">少女の「アイミ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅茶の香り「TEATIME」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奈落堕ちの追跡者「ラウシアン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の旅人「seeker」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「君は楽しめてるかい？」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緑雨の燕「イツカ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「長く、遠く、旅をしてきて……それでも、もうすこしだけ飛んでいたかったなぁ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博愛主義「マモゴロ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"sweetcakes" Solitary Mecha Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ひろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グルメハンター「burnfu」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「腹減った……」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leilana Auslese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ181918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「チェリーブロッサムへようこそ！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Taco" Whiny Dog Begs for Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"kigey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"P-nut" Johan and Cherry's love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供の「マーポン」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「まんまるお月さまとまるいねこ～♪」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Klais" The Star Gazer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Will my wish become true?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ycare" The Grand Ambassador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Carried the weight of a Prophecy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Andre" Serendipity Mage Recluse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よいこの「ぷゆ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イヌアザラシレンタルサービス「れみどり」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「つかれじゃみせんバイセコー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勇敢な騎士「フェリ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翠眼の宣教師「パシフローラ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「もっと皆さまにオパートス様の魅力を知ってほしい！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月夜の街「トルキィ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「空を青く塗ることくらい私にもできる」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アヤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mango Putit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Henry" The Stalwart Dogge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kairi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兄LOVE「妹」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗闇の天狐「ルシフェル」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゲーミングカタツムリちゃん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Kyouka" The Kamidere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビジン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美の巨人「トルメンコ」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「私の死を乗り越えて、より美しい物を探しなさい」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の孤独「Vipolar」</t>
+  </si>
+  <si>
     <t xml:space="preserve">「見つめていると腹が立ってくる」</t>
   </si>
   <si>
-    <t xml:space="preserve">4574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halycoma00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">夜明けを待つ者「真耶」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「一つの時代、一つの灯火、その足跡をここに」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Snowy" the Battle Scarred Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">料理に命をささげた「オウエ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「生きて、喰って、死ぬ、最高だぜ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さすらいの釣り人「Lua」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「良い一日を！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冷静沈着の男「デイ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「「懐に一切れのパンさえあればどこまでだって歩いていける」って、誰が言った言葉だったか……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異端の冒険者「ナナシノ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">井戸水を求め彷徨うプチ「鋼缶」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">月に踊る者「ルナティリス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「信じて、前へ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寵愛の祭壇「ミズ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Wandering Minstrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Always look toward brighter days!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お散歩日和「さんぽどき」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「一般冒险者U」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「啊？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蝸牛先輩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Spencer" The Eternal Choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Darien" the Gastropodly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senko san</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">癒し系戦車「きうななしき」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Richard" A Fool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モグラを追う者「チャカ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「また騙されたな」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18歳JD「シイタケ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「シイタケお兄ちゃんだよぉ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「射手座の守護者」ミューズ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「非モテだけどクッキー焼いたよ～」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">揺蕩う者「ナンサン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「今日もいい天気だな」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meyan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「今日からまた日記をつけることにしよう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Rusterday" True genius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"3C Jian Da Lao Ba Laugh"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as long as you give it this name. If you can make it a special weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">放浪する機械「ジャンバー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ガチャガチャ……カチｯ……ピーピーピー！エラーエラー！！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">悠久の旅人「七空」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「蘇生中…蘇生中…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">楽天的な「ソルナレク」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「コボルトスレイヤー」名無し</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「両手持ちには気をつけろ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">破壊の天使「ウィローサ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Sasha" The Clueless Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イッツ・マイ・カレー「トモヒロ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">働く鼠「ナメタケ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「労働はやはり身体に悪い……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たれみみの「まり」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">慈悲の手「ゆき」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「さて、行こうぜ。相棒」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何者かになりたかった「マナフォ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「失う前に、大切なんだって気づけるといいな」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子羊「御神酒」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">夢の世界に漂う者「Ryo」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「羊が一匹、羊が二匹……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傷付いた「イナバ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Raquesis" Loving Righteousness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'll find the cursed halberd that stops time, or die trying! After that, I'll go home and eat a nice apple parfait..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜を求めし風「ツヅラ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「わたしが りゅうきしだ！！ りゅうきしと ひりゅうがぜつめつだ？ でたらめを いうな！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mameta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ガチャに勝てない「aoxola」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">隻腕の白狼「ガリバス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「イキりカボチャ撲滅活動実施中！君も一緒に害悪カボチャ共を駆除しよう！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒猫亭の猫「ちろあこ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明日を信じる者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「これさえ実れば」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銀をまといし微笑み「ヨル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「お前も目的を持って、この地を訪れたんだな。まあ、お互い頑張ろうぜ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">迷走する期待のホープ「ミッタン＝カーズゥイ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「俺このフィールドワークが終わったら学位論文書くんだ……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お野菜大好き「にんじんのすけ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キキエイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">旅する妖精「カヤ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「未だ見ぬ世界へ導いて！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silica Aruass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とろっぴ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よつばちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">休暇を満喫する「トム」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「短い休暇だったな……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幸運な愚か者「イーロイ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「今日はツイてるな！！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">終わりなき雪月花「しゃっきょう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妄想に呑まれたトナカイ「つぇる」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ペリドットを狩る吟遊詩人「ツベロサ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ワンちゃんが群れている！あの中にうちの子がいるかも……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爛れを喰らう者「ジョン・レオパルド」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「儚い光が暗く不安定で曖昧で暗い道の足元を照らしてくれる…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なとりさん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄昏の戦士「ケルヴァン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「それでもあなたの道を行け」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">集める者「baron」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ま、まだインベントリが破裂する程のアイテムを集めてないのに…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人になりたいはじけ魚「nsBeee」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">釣りまくる研究者「Okazu」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「女神様…せめて最期にこの身を捧げま…しまった、まだ死体じゃないから…無念」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ボロボロな「T2023」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無気力な守護者「カズキ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「q!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ふたばの支配者「としんか」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あうぅ・・・限定ガチャでピックアップキャラが天井まで出なかった・・・」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">殺したいほど愛したい「オバケ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">独身貴族「ひげ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ここが私の旅の終着点、この世界は楽しかった、唯一の心残りは…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Yuri" The Yuricon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">虚無主義の代表「チェルベス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「目的を思い出せ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彼方者の「エタンセル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「かんちゅんかんちゅんかんまんしょぉ！（訳：良い冒険の旅を！）」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ただの妹「toroge」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しい緋色の目「みどりむし」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神のための瞳「スイレン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あんなに祈ったのに……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">時を溶かす灰刃「アナザー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">車輪の獣狩り「シオン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この先、光が必要だ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ランタウロス「acht-aale」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「今日は目出度い！乾杯だ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Leythn" Lunatic Tactician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エーテル病の末路「サノ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可愛すぎる腐肉「べるた」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微笑まぬ久遠「ニポポ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在る白兎「メヴィエ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">バトルスクール出身の「づえ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「覚えておけ、敵のゲートは「下」だ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Straw” The Cursed One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星の娘「あん箱」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「各地の祭りの記憶と共に、このランタンがあなたの暖かな夜を照らします」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">とてもかわいい犬「チョコ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竹輪大明神「コロロ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ちくわすら持ってねぇ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうしようもない僕「だったん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「旅する者の灯火に」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Starborn" The Mushy Putit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sage of the Moonlight Blade "Hachimitsu"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It is our duty to witness the final moments of these myriad worlds."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長靴を履いた霊猫「リドル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無を追いし旅人「テチ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「そのランタンの灯は火ではなく、ランタンに閉じ込められた冒険者の魂が蠢いている姿である」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野生の餅「アンビン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ギャンブル・オブ・ホープ「レジ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「何が出るかな？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罰に苦しむ幻影「あさのま」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白き花一華「アネモネ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「こっちじゃ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">経穴を突くもの「つぼりん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「良き指圧師になりたかった……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Natsugu"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stardust Snail "reblank"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嫁猫「ちひろ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Shadow" Barkface Fluffybutt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可能性の狩り人「トモ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「可能性はあった・・・」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nelson"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest here for as long as you like</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Rena" Yandere Doll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心ある放浪者「ウード」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ああ、自由よ。私の代わりに、これを。」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幸せを集める旅「ハワワ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ハッピーになりたい」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Lyan" The Bondsmith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The ancient words shall be spoken again... Life before death, strength before weakness and journey before destination."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Idola" the Cute Wacko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'm so so SO excited for today's concert! It's gonna be my first time performing in front of everybody! I hope they all like it."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">虎の威を借る「キツネ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"肉"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イレギュラーハンター「エックス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「どうしてイレギュラーは発生するんだろう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血染めの紅葉「モミジ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打ち揚げられた海老「reet」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「こんな所で君に会えるなんて、嬉しいねぇ…。私を食べていくかい？とても美味しいよ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緑の髪の少年「らっち」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「穏やかに とこしえに 幸せを願う」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"mUiUm" The Radiant Smile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シズク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crayll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大地に染み渡る「あーびん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砂糖まみれの「サキ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星月の欠片「九月。」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em Laeser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Let the flame burn and remember me. Dust to Ash, go forth and have fun."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Yang"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天城総司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「生きたかったが、生き絶えた。」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asagiri Otomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">のいあー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この時を長年待っていたんだ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緩やかな時間「パティシア」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クッキー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Tsubasa" The Fennec Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I will find you my love, if it is the last thing I do"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠の孤独「Vipolar」</t>
-  </si>
-  <si>
     <t xml:space="preserve">「これさえあれば…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非常食</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">レーシャ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">迷い猫「ニペ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不吉な頭の「ハゲ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紛い物の読書家「蓬」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この明りは実に読書のおともに最適だ。気に食わなかったらくべてしまえるもの」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蒸留されし雲「オーリオル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"LifeFF" The White Rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竟天の妹「ベル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深淵より覗きし双眸「クロ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やっぱり弟「kokoax」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「お姉ちゃんっていいよね」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脳を機械に接ぐ者「エマ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「脳デバイスの過負荷を検知、で、デバッグしててててて…ｶﾞｯﾋﾟｯ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性戦士「らみたろう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なまこを煮込んだうどん「リッキー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「………！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">種馬「エスロック」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHA5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ジュア様のエロ本が欲しかった……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">路端の虹色「アコタ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「死ぬほど飲みたい気分だったんだ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翌桧の杖「テオドール」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SabaTea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Kupfernickel" The Copper Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Melt it, EVERYTHING!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Fresky" The Lost Popoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">犬を追いかける狂人「イヌオ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「夢でみたんだ…どこかにあるはずなんだ…犬の…犬だけの楽園…妹犬の館が…どこかに…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スライムマイマイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古き星「ニルサ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「さあ、目覚めの時だ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master†Z†</t>
-  </si>
-  <si>
-    <t xml:space="preserve">774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山の神「ふじさん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「山登り日和だ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外道「カヤノ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野菜好き「海森」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Clara"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'll always be here for you."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">狐好きの夢想家「フィクス」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「どうか次はミフかネフに…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ひりつく妹「シズマ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青緑のあいつ「プルパー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「’双盾で弓使い’しようとしたら盾が呪われてて外せないまま餓死。皿に頭突っ込んで食べるなど紳士のなすべきじゃなかろう！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stabby" The Assassin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">混沌の放浪者「バクルド」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「まあ、ぼちぼちいい放浪だった」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roroky Lalaoky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Rider? I barely even know her!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Putittoro" The Devoted Putit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Malaath" the happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda Muda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「プリン」怪鳥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刹那「シュヴェルト」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「鏡……ともしび……とらわれ……天使……。 ……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煙鏡に捧ぐ短剣「シュトカルト」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Martin" The Sleepy One</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I love to tinker at night!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"MegaNightshark" the wishing well taster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adams "Mesherada" Trinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Drifter" The Lord Harvester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Yeeks aren't the only risk down here..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Leah" The Once Beloved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">女神の抱き枕を抱えた「赤鳥ヴィズ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風化した足跡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「……最後の一口」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">塩に素晴らしい耐性がある「おみくじ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">悪食「ドラゴン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「金貨以外は口にしたくないね！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">漆黒「ユウギリ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「寝なくても明日は来る」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在しない者「余白アマシロ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「narrative is now here」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファントムレッド「アナスタシア」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiridaema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">母から受け継いだ氷河「ミシュラ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「お前を見ている」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かみかくし「だのみん」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Apitaya" The Indecisive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nathaniel" The Witless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Gourdman" The Mutant Circus Performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"They didn't tell me this would happen!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未熟者の末路「あなた」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「何度でも立ち上がる！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whose name is Cain de Ticano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">法の書の信徒ピタパン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alcadeias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"EVERYBODY NEEDS SOMEBODY."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nina" The inmortal Dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Mochi" The Pancake Thief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">猫のような風「チョコ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星屑の虹「ハティ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">洞房花燭「キリエ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Justin" Lord of a Distant Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I wont go down without a fight!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奇術師「ナグ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ななしの繁栄を祝して！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プリティーダークネス「ネモ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">野良猫「リリーベル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シャイな子犬「ふく」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明日を信じる不滅「ホスビン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「違う、これじゃない！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愚者の末路「インサニア」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「すごいさかなの中の人」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「私の亡骸を見つけた者に頼みがある。魚が好きな神様にこれを届けてほしい。まだ新鮮なうちに！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あなたを待ち侘びた者「？？？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「やっと見つけてくれたか。お前に渡したい物があったのだ。」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">悟った愚者「mojito_can」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「（皺の寄った小さな紙片に、落ち着きのある字が書かれている。）紙が無いからって、武器で拭いちゃだめね。」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonne Walkure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Vici"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I just want to lay down"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">銘探偵「バリバリバリツ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Devon" The Newbie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'll become a hero of legend for sure!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">今日も癒されたい「レイド」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">それでも逃避行「ミノト」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「来世に期待」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">＊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「やぁ、よく見つけたね……さぁ、掘ってごらん……正丁」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nil" The Grateful Son</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Mom, I finally got the medicine for you!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carind Nivans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"There's a broken watch near the corpse, it's stuck at 21:37"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妖怪「ブンブン茶釜」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「タヌキじゃないよ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">目にハートマークが浮かぶ「ハルナ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Lily" Flowering Nightmare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Mika" The Sleepy Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アキ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">驚異の子「ジーク」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「そうだろう、ーーーーーさん、見ててくれよ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"First Snow" Associated Snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「メルツ」駆け出し魔法使い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「騙された……こんな危ないとこじゃなくて家で読めば良かった……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Azzalin" The One Kink Shamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星と翼の亡霊｢シンゴロ〜｣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">｢いつかソラへ…｣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">癒しの女神の信奉者「ANI」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兄のために這い上がり続ける「ショコラーデ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">へたれの吟遊詩人「ノキ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ふかふかパンの中で圧死したい」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠の迷い人「ソイヤ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「一瞬で良い…混沌の世に一瞬の光を…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Olin" The Fighting Rebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Teehee~"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Bob"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">空の捕喰者「シャチ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「月が照らす桜小路で出会えた君に、桜吹雪の朝日を捧げよう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">少女の「アイミ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紅茶の香り「TEATIME」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奈落堕ちの追跡者「ラウシアン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永遠の旅人「seeker」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「君は楽しめてるかい？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緑雨の燕「イツカ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「長く、遠く、旅をしてきて……それでも、もうすこしだけ飛んでいたかったなぁ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博愛主義「マモゴロ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"sweetcakes" Solitary Mecha Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ひろ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">グルメハンター「burnfu」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「腹減った……」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leilana Auslese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ181918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「チェリーブロッサムへようこそ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Taco" Whiny Dog Begs for Beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"kigey"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"P-nut" Johan and Cherry's love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">子供の「マーポン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「まんまるお月さまとまるいねこ～♪」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Klais" The Star Gazer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Will my wish become true?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ycare" The Grand Ambassador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Carried the weight of a Prophecy"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Andre" Serendipity Mage Recluse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">よいこの「ぷゆ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">イヌアザラシレンタルサービス「れみどり」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「つかれじゃみせんバイセコー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勇敢な騎士「フェリ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翠眼の宣教師「パシフローラ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もっと皆さまにオパートス様の魅力を知ってほしい！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">月夜の街「トルキィ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「空を青く塗ることくらい私にもできる」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アヤ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mango Putit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Henry" The Stalwart Dogge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kairi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兄LOVE「妹」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暗闇の天狐「ルシフェル」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲーミングカタツムリちゃん</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Kyouka" The Kamidere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビジン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美の巨人「トルメンコ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「私の死を乗り越えて、より美しい物を探しなさい」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
   </si>
 </sst>
 </file>
@@ -10340,7 +10352,7 @@
       </c>
       <c r="E317"/>
       <c r="F317" t="s">
-        <v>729</v>
+        <v>1474</v>
       </c>
       <c r="G317" t="s">
         <v>729</v>
@@ -10912,7 +10924,7 @@
         <v>1467</v>
       </c>
       <c r="C349" t="s">
-        <v>799</v>
+        <v>1472</v>
       </c>
       <c r="D349" t="s">
         <v>799</v>
@@ -13357,14 +13369,14 @@
         <v>1467</v>
       </c>
       <c r="C484" t="s">
-        <v>1099</v>
+        <v>1473</v>
       </c>
       <c r="D484" t="s">
         <v>1099</v>
       </c>
       <c r="E484"/>
       <c r="F484" t="s">
-        <v>1100</v>
+        <v>1475</v>
       </c>
       <c r="G484" t="s">
         <v>1100</v>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3571" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="1473">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
@@ -3423,6 +3423,9 @@
   </si>
   <si>
     <t xml:space="preserve">499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">来世は室内飼い「たなかす」</t>
   </si>
   <si>
     <t xml:space="preserve">503</t>
@@ -4542,7 +4545,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -4554,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -4566,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -4583,7 +4586,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -4595,7 +4598,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -4612,7 +4615,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -4629,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -4641,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -4653,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -4670,7 +4673,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -4682,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -4699,7 +4702,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -4711,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -4728,7 +4731,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -4740,7 +4743,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -4752,7 +4755,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -4774,7 +4777,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -4791,7 +4794,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -4808,7 +4811,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -4825,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -4847,7 +4850,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -4864,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -4886,7 +4889,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -4898,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C26" t="s">
         <v>49</v>
@@ -4915,7 +4918,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
@@ -4932,7 +4935,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -4954,7 +4957,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -4976,7 +4979,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -4988,7 +4991,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -5005,7 +5008,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -5022,7 +5025,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -5044,7 +5047,7 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -5061,7 +5064,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
@@ -5078,7 +5081,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -5095,7 +5098,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -5112,7 +5115,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -5129,7 +5132,7 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
@@ -5146,7 +5149,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C40" t="s">
         <v>79</v>
@@ -5168,7 +5171,7 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -5190,7 +5193,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
@@ -5207,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
@@ -5224,7 +5227,7 @@
         <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -5246,7 +5249,7 @@
         <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -5258,7 +5261,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C46" t="s">
         <v>93</v>
@@ -5280,7 +5283,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C47" t="s">
         <v>96</v>
@@ -5297,7 +5300,7 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
@@ -5314,7 +5317,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C49" t="s">
         <v>100</v>
@@ -5331,7 +5334,7 @@
         <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
@@ -5353,7 +5356,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C51" t="s">
         <v>105</v>
@@ -5370,7 +5373,7 @@
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -5387,7 +5390,7 @@
         <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C53" t="s">
         <v>109</v>
@@ -5409,7 +5412,7 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C54" t="s">
         <v>112</v>
@@ -5431,7 +5434,7 @@
         <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C55" t="s">
         <v>115</v>
@@ -5448,7 +5451,7 @@
         <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
@@ -5470,7 +5473,7 @@
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -5487,7 +5490,7 @@
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C58" t="s">
         <v>122</v>
@@ -5504,7 +5507,7 @@
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C59" t="s">
         <v>124</v>
@@ -5521,7 +5524,7 @@
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C60" t="s">
         <v>126</v>
@@ -5543,7 +5546,7 @@
         <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C61" t="s">
         <v>129</v>
@@ -5560,7 +5563,7 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
@@ -5582,7 +5585,7 @@
         <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C63" t="s">
         <v>134</v>
@@ -5604,7 +5607,7 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C64" t="s">
         <v>137</v>
@@ -5621,7 +5624,7 @@
         <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C65" t="s">
         <v>139</v>
@@ -5643,7 +5646,7 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C66" t="s">
         <v>142</v>
@@ -5665,7 +5668,7 @@
         <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C67" t="s">
         <v>145</v>
@@ -5687,7 +5690,7 @@
         <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
@@ -5704,7 +5707,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C69" t="s">
         <v>150</v>
@@ -5726,7 +5729,7 @@
         <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C70" t="s">
         <v>153</v>
@@ -5743,7 +5746,7 @@
         <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C71" t="s">
         <v>155</v>
@@ -5760,7 +5763,7 @@
         <v>156</v>
       </c>
       <c r="B72" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -5772,7 +5775,7 @@
         <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C73" t="s">
         <v>158</v>
@@ -5794,7 +5797,7 @@
         <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C74" t="s">
         <v>161</v>
@@ -5816,7 +5819,7 @@
         <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C75" t="s">
         <v>164</v>
@@ -5833,7 +5836,7 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C76" t="s">
         <v>166</v>
@@ -5855,7 +5858,7 @@
         <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C77" t="s">
         <v>169</v>
@@ -5872,7 +5875,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C78" t="s">
         <v>171</v>
@@ -5894,7 +5897,7 @@
         <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C79" t="s">
         <v>174</v>
@@ -5911,7 +5914,7 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C80" t="s">
         <v>176</v>
@@ -5928,7 +5931,7 @@
         <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C81" t="s">
         <v>178</v>
@@ -5950,7 +5953,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C82" t="s">
         <v>181</v>
@@ -5972,7 +5975,7 @@
         <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C83" t="s">
         <v>184</v>
@@ -5994,7 +5997,7 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C84" t="s">
         <v>187</v>
@@ -6011,7 +6014,7 @@
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C85" t="s">
         <v>189</v>
@@ -6033,7 +6036,7 @@
         <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C86" t="s">
         <v>192</v>
@@ -6055,7 +6058,7 @@
         <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C87" t="s">
         <v>195</v>
@@ -6072,7 +6075,7 @@
         <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C88" t="s">
         <v>197</v>
@@ -6089,7 +6092,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C89" t="s">
         <v>199</v>
@@ -6111,7 +6114,7 @@
         <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C90" t="s">
         <v>202</v>
@@ -6133,7 +6136,7 @@
         <v>204</v>
       </c>
       <c r="B91" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C91" t="s">
         <v>205</v>
@@ -6155,7 +6158,7 @@
         <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
@@ -6167,7 +6170,7 @@
         <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C93" t="s">
         <v>209</v>
@@ -6189,7 +6192,7 @@
         <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C94" t="s">
         <v>212</v>
@@ -6206,7 +6209,7 @@
         <v>213</v>
       </c>
       <c r="B95" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C95" t="s">
         <v>214</v>
@@ -6228,7 +6231,7 @@
         <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C96" t="s">
         <v>217</v>
@@ -6245,7 +6248,7 @@
         <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C97" t="s">
         <v>219</v>
@@ -6262,7 +6265,7 @@
         <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C98" t="s">
         <v>221</v>
@@ -6284,7 +6287,7 @@
         <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C99" t="s">
         <v>224</v>
@@ -6306,7 +6309,7 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C100" t="s">
         <v>227</v>
@@ -6323,7 +6326,7 @@
         <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C101" t="s">
         <v>229</v>
@@ -6340,7 +6343,7 @@
         <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C102" t="s">
         <v>231</v>
@@ -6357,7 +6360,7 @@
         <v>232</v>
       </c>
       <c r="B103" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C103" t="s">
         <v>233</v>
@@ -6374,7 +6377,7 @@
         <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C104" t="s">
         <v>235</v>
@@ -6396,7 +6399,7 @@
         <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C105" t="s">
         <v>238</v>
@@ -6413,7 +6416,7 @@
         <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C106" t="s">
         <v>240</v>
@@ -6435,7 +6438,7 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C107" t="s">
         <v>243</v>
@@ -6452,7 +6455,7 @@
         <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C108" t="s">
         <v>245</v>
@@ -6469,7 +6472,7 @@
         <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C109" t="s">
         <v>247</v>
@@ -6486,7 +6489,7 @@
         <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C110" t="s">
         <v>249</v>
@@ -6503,7 +6506,7 @@
         <v>250</v>
       </c>
       <c r="B111" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C111" t="s">
         <v>251</v>
@@ -6520,7 +6523,7 @@
         <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C112" t="s">
         <v>253</v>
@@ -6537,7 +6540,7 @@
         <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C113" t="s">
         <v>255</v>
@@ -6559,7 +6562,7 @@
         <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D114"/>
       <c r="E114"/>
@@ -6571,7 +6574,7 @@
         <v>258</v>
       </c>
       <c r="B115" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C115" t="s">
         <v>259</v>
@@ -6593,7 +6596,7 @@
         <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C116" t="s">
         <v>262</v>
@@ -6615,7 +6618,7 @@
         <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C117" t="s">
         <v>265</v>
@@ -6632,7 +6635,7 @@
         <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C118" t="s">
         <v>267</v>
@@ -6654,7 +6657,7 @@
         <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C119" t="s">
         <v>270</v>
@@ -6671,7 +6674,7 @@
         <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
@@ -6688,7 +6691,7 @@
         <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C121" t="s">
         <v>274</v>
@@ -6710,7 +6713,7 @@
         <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C122" t="s">
         <v>277</v>
@@ -6727,7 +6730,7 @@
         <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C123" t="s">
         <v>279</v>
@@ -6744,7 +6747,7 @@
         <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C124" t="s">
         <v>281</v>
@@ -6761,7 +6764,7 @@
         <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C125" t="s">
         <v>283</v>
@@ -6783,7 +6786,7 @@
         <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C126" t="s">
         <v>286</v>
@@ -6800,7 +6803,7 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C127" t="s">
         <v>288</v>
@@ -6822,7 +6825,7 @@
         <v>290</v>
       </c>
       <c r="B128" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C128" t="s">
         <v>291</v>
@@ -6844,7 +6847,7 @@
         <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C129" t="s">
         <v>294</v>
@@ -6866,7 +6869,7 @@
         <v>296</v>
       </c>
       <c r="B130" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D130"/>
       <c r="E130"/>
@@ -6878,7 +6881,7 @@
         <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
@@ -6900,7 +6903,7 @@
         <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C132" t="s">
         <v>301</v>
@@ -6922,7 +6925,7 @@
         <v>303</v>
       </c>
       <c r="B133" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C133" t="s">
         <v>304</v>
@@ -6939,7 +6942,7 @@
         <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C134" t="s">
         <v>306</v>
@@ -6961,7 +6964,7 @@
         <v>308</v>
       </c>
       <c r="B135" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C135" t="s">
         <v>309</v>
@@ -6978,7 +6981,7 @@
         <v>310</v>
       </c>
       <c r="B136" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C136" t="s">
         <v>311</v>
@@ -6995,7 +6998,7 @@
         <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C137" t="s">
         <v>313</v>
@@ -7012,7 +7015,7 @@
         <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C138" t="s">
         <v>315</v>
@@ -7034,7 +7037,7 @@
         <v>317</v>
       </c>
       <c r="B139" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C139" t="s">
         <v>318</v>
@@ -7051,7 +7054,7 @@
         <v>319</v>
       </c>
       <c r="B140" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D140"/>
       <c r="E140"/>
@@ -7063,7 +7066,7 @@
         <v>320</v>
       </c>
       <c r="B141" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C141" t="s">
         <v>321</v>
@@ -7080,7 +7083,7 @@
         <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C142" t="s">
         <v>323</v>
@@ -7102,7 +7105,7 @@
         <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C143" t="s">
         <v>326</v>
@@ -7119,7 +7122,7 @@
         <v>327</v>
       </c>
       <c r="B144" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C144" t="s">
         <v>328</v>
@@ -7141,7 +7144,7 @@
         <v>330</v>
       </c>
       <c r="B145" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C145" t="s">
         <v>331</v>
@@ -7163,7 +7166,7 @@
         <v>333</v>
       </c>
       <c r="B146" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D146"/>
       <c r="E146"/>
@@ -7175,7 +7178,7 @@
         <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C147" t="s">
         <v>335</v>
@@ -7197,7 +7200,7 @@
         <v>337</v>
       </c>
       <c r="B148" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C148" t="s">
         <v>338</v>
@@ -7214,7 +7217,7 @@
         <v>339</v>
       </c>
       <c r="B149" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C149" t="s">
         <v>340</v>
@@ -7231,7 +7234,7 @@
         <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C150" t="s">
         <v>342</v>
@@ -7248,7 +7251,7 @@
         <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C151" t="s">
         <v>344</v>
@@ -7270,7 +7273,7 @@
         <v>346</v>
       </c>
       <c r="B152" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C152" t="s">
         <v>347</v>
@@ -7287,7 +7290,7 @@
         <v>348</v>
       </c>
       <c r="B153" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C153" t="s">
         <v>349</v>
@@ -7304,7 +7307,7 @@
         <v>350</v>
       </c>
       <c r="B154" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C154" t="s">
         <v>351</v>
@@ -7326,7 +7329,7 @@
         <v>353</v>
       </c>
       <c r="B155" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C155" t="s">
         <v>354</v>
@@ -7348,7 +7351,7 @@
         <v>356</v>
       </c>
       <c r="B156" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C156" t="s">
         <v>357</v>
@@ -7370,7 +7373,7 @@
         <v>359</v>
       </c>
       <c r="B157" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C157" t="s">
         <v>360</v>
@@ -7392,7 +7395,7 @@
         <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C158" t="s">
         <v>363</v>
@@ -7409,7 +7412,7 @@
         <v>364</v>
       </c>
       <c r="B159" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C159" t="s">
         <v>365</v>
@@ -7431,7 +7434,7 @@
         <v>367</v>
       </c>
       <c r="B160" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C160" t="s">
         <v>368</v>
@@ -7453,7 +7456,7 @@
         <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C161" t="s">
         <v>371</v>
@@ -7475,7 +7478,7 @@
         <v>373</v>
       </c>
       <c r="B162" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D162"/>
       <c r="E162"/>
@@ -7487,7 +7490,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C163" t="s">
         <v>375</v>
@@ -7504,7 +7507,7 @@
         <v>376</v>
       </c>
       <c r="B164" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C164" t="s">
         <v>377</v>
@@ -7521,7 +7524,7 @@
         <v>378</v>
       </c>
       <c r="B165" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C165" t="s">
         <v>379</v>
@@ -7543,7 +7546,7 @@
         <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C166" t="s">
         <v>382</v>
@@ -7565,7 +7568,7 @@
         <v>384</v>
       </c>
       <c r="B167" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C167" t="s">
         <v>385</v>
@@ -7582,7 +7585,7 @@
         <v>386</v>
       </c>
       <c r="B168" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C168" t="s">
         <v>387</v>
@@ -7604,7 +7607,7 @@
         <v>389</v>
       </c>
       <c r="B169" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C169" t="s">
         <v>390</v>
@@ -7621,7 +7624,7 @@
         <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C170" t="s">
         <v>392</v>
@@ -7643,7 +7646,7 @@
         <v>394</v>
       </c>
       <c r="B171" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C171" t="s">
         <v>395</v>
@@ -7660,7 +7663,7 @@
         <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C172" t="s">
         <v>397</v>
@@ -7682,7 +7685,7 @@
         <v>399</v>
       </c>
       <c r="B173" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C173" t="s">
         <v>400</v>
@@ -7699,7 +7702,7 @@
         <v>401</v>
       </c>
       <c r="B174" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C174" t="s">
         <v>402</v>
@@ -7716,7 +7719,7 @@
         <v>403</v>
       </c>
       <c r="B175" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C175" t="s">
         <v>404</v>
@@ -7733,7 +7736,7 @@
         <v>405</v>
       </c>
       <c r="B176" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C176" t="s">
         <v>406</v>
@@ -7755,7 +7758,7 @@
         <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C177" t="s">
         <v>409</v>
@@ -7777,7 +7780,7 @@
         <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C178" t="s">
         <v>412</v>
@@ -7794,7 +7797,7 @@
         <v>413</v>
       </c>
       <c r="B179" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C179" t="s">
         <v>414</v>
@@ -7816,7 +7819,7 @@
         <v>416</v>
       </c>
       <c r="B180" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C180" t="s">
         <v>417</v>
@@ -7838,7 +7841,7 @@
         <v>419</v>
       </c>
       <c r="B181" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C181" t="s">
         <v>420</v>
@@ -7855,7 +7858,7 @@
         <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C182" t="s">
         <v>422</v>
@@ -7872,7 +7875,7 @@
         <v>423</v>
       </c>
       <c r="B183" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C183" t="s">
         <v>424</v>
@@ -7894,7 +7897,7 @@
         <v>426</v>
       </c>
       <c r="B184" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C184" t="s">
         <v>427</v>
@@ -7911,7 +7914,7 @@
         <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C185" t="s">
         <v>429</v>
@@ -7928,7 +7931,7 @@
         <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C186" t="s">
         <v>431</v>
@@ -7945,7 +7948,7 @@
         <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C187" t="s">
         <v>433</v>
@@ -7962,7 +7965,7 @@
         <v>434</v>
       </c>
       <c r="B188" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C188" t="s">
         <v>435</v>
@@ -7984,7 +7987,7 @@
         <v>437</v>
       </c>
       <c r="B189" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C189" t="s">
         <v>438</v>
@@ -8001,7 +8004,7 @@
         <v>439</v>
       </c>
       <c r="B190" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C190" t="s">
         <v>440</v>
@@ -8018,7 +8021,7 @@
         <v>441</v>
       </c>
       <c r="B191" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C191" t="s">
         <v>442</v>
@@ -8040,7 +8043,7 @@
         <v>444</v>
       </c>
       <c r="B192" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D192"/>
       <c r="E192"/>
@@ -8052,7 +8055,7 @@
         <v>445</v>
       </c>
       <c r="B193" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C193" t="s">
         <v>446</v>
@@ -8069,7 +8072,7 @@
         <v>447</v>
       </c>
       <c r="B194" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C194" t="s">
         <v>448</v>
@@ -8086,7 +8089,7 @@
         <v>449</v>
       </c>
       <c r="B195" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C195" t="s">
         <v>450</v>
@@ -8103,7 +8106,7 @@
         <v>451</v>
       </c>
       <c r="B196" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D196"/>
       <c r="E196"/>
@@ -8115,7 +8118,7 @@
         <v>452</v>
       </c>
       <c r="B197" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C197" t="s">
         <v>453</v>
@@ -8137,7 +8140,7 @@
         <v>455</v>
       </c>
       <c r="B198" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C198" t="s">
         <v>456</v>
@@ -8154,7 +8157,7 @@
         <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C199" t="s">
         <v>458</v>
@@ -8171,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B200" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C200" t="s">
         <v>460</v>
@@ -8188,7 +8191,7 @@
         <v>461</v>
       </c>
       <c r="B201" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C201" t="s">
         <v>462</v>
@@ -8210,7 +8213,7 @@
         <v>464</v>
       </c>
       <c r="B202" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C202" t="s">
         <v>465</v>
@@ -8232,7 +8235,7 @@
         <v>467</v>
       </c>
       <c r="B203" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C203" t="s">
         <v>468</v>
@@ -8249,7 +8252,7 @@
         <v>469</v>
       </c>
       <c r="B204" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C204" t="s">
         <v>470</v>
@@ -8266,7 +8269,7 @@
         <v>471</v>
       </c>
       <c r="B205" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C205" t="s">
         <v>472</v>
@@ -8283,7 +8286,7 @@
         <v>473</v>
       </c>
       <c r="B206" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D206"/>
       <c r="E206"/>
@@ -8295,7 +8298,7 @@
         <v>474</v>
       </c>
       <c r="B207" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C207" t="s">
         <v>475</v>
@@ -8317,7 +8320,7 @@
         <v>477</v>
       </c>
       <c r="B208" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C208" t="s">
         <v>478</v>
@@ -8339,7 +8342,7 @@
         <v>480</v>
       </c>
       <c r="B209" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C209" t="s">
         <v>481</v>
@@ -8356,7 +8359,7 @@
         <v>482</v>
       </c>
       <c r="B210" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D210"/>
       <c r="E210"/>
@@ -8368,7 +8371,7 @@
         <v>483</v>
       </c>
       <c r="B211" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C211" t="s">
         <v>484</v>
@@ -8390,7 +8393,7 @@
         <v>486</v>
       </c>
       <c r="B212" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C212" t="s">
         <v>487</v>
@@ -8407,7 +8410,7 @@
         <v>488</v>
       </c>
       <c r="B213" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C213" t="s">
         <v>489</v>
@@ -8429,7 +8432,7 @@
         <v>491</v>
       </c>
       <c r="B214" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C214" t="s">
         <v>492</v>
@@ -8446,7 +8449,7 @@
         <v>493</v>
       </c>
       <c r="B215" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C215" t="s">
         <v>494</v>
@@ -8463,7 +8466,7 @@
         <v>495</v>
       </c>
       <c r="B216" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C216" t="s">
         <v>496</v>
@@ -8480,7 +8483,7 @@
         <v>497</v>
       </c>
       <c r="B217" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C217" t="s">
         <v>498</v>
@@ -8497,7 +8500,7 @@
         <v>499</v>
       </c>
       <c r="B218" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C218" t="s">
         <v>500</v>
@@ -8514,7 +8517,7 @@
         <v>501</v>
       </c>
       <c r="B219" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C219" t="s">
         <v>502</v>
@@ -8536,7 +8539,7 @@
         <v>504</v>
       </c>
       <c r="B220" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C220" t="s">
         <v>505</v>
@@ -8558,7 +8561,7 @@
         <v>507</v>
       </c>
       <c r="B221" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D221"/>
       <c r="E221"/>
@@ -8570,7 +8573,7 @@
         <v>508</v>
       </c>
       <c r="B222" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C222" t="s">
         <v>509</v>
@@ -8587,7 +8590,7 @@
         <v>510</v>
       </c>
       <c r="B223" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C223" t="s">
         <v>511</v>
@@ -8609,7 +8612,7 @@
         <v>513</v>
       </c>
       <c r="B224" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D224"/>
       <c r="E224"/>
@@ -8621,7 +8624,7 @@
         <v>514</v>
       </c>
       <c r="B225" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C225" t="s">
         <v>515</v>
@@ -8643,7 +8646,7 @@
         <v>517</v>
       </c>
       <c r="B226" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C226" t="s">
         <v>518</v>
@@ -8660,7 +8663,7 @@
         <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C227" t="s">
         <v>520</v>
@@ -8682,7 +8685,7 @@
         <v>522</v>
       </c>
       <c r="B228" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C228" t="s">
         <v>523</v>
@@ -8699,7 +8702,7 @@
         <v>524</v>
       </c>
       <c r="B229" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C229" t="s">
         <v>525</v>
@@ -8721,7 +8724,7 @@
         <v>527</v>
       </c>
       <c r="B230" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C230" t="s">
         <v>528</v>
@@ -8738,7 +8741,7 @@
         <v>529</v>
       </c>
       <c r="B231" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C231" t="s">
         <v>530</v>
@@ -8755,7 +8758,7 @@
         <v>531</v>
       </c>
       <c r="B232" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C232" t="s">
         <v>532</v>
@@ -8772,7 +8775,7 @@
         <v>533</v>
       </c>
       <c r="B233" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C233" t="s">
         <v>534</v>
@@ -8794,7 +8797,7 @@
         <v>536</v>
       </c>
       <c r="B234" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D234"/>
       <c r="E234"/>
@@ -8806,7 +8809,7 @@
         <v>537</v>
       </c>
       <c r="B235" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C235" t="s">
         <v>538</v>
@@ -8823,7 +8826,7 @@
         <v>539</v>
       </c>
       <c r="B236" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C236" t="s">
         <v>540</v>
@@ -8840,7 +8843,7 @@
         <v>541</v>
       </c>
       <c r="B237" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C237" t="s">
         <v>542</v>
@@ -8862,7 +8865,7 @@
         <v>544</v>
       </c>
       <c r="B238" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C238" t="s">
         <v>545</v>
@@ -8879,7 +8882,7 @@
         <v>546</v>
       </c>
       <c r="B239" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C239" t="s">
         <v>547</v>
@@ -8901,7 +8904,7 @@
         <v>549</v>
       </c>
       <c r="B240" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C240" t="s">
         <v>550</v>
@@ -8918,7 +8921,7 @@
         <v>551</v>
       </c>
       <c r="B241" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C241" t="s">
         <v>552</v>
@@ -8940,7 +8943,7 @@
         <v>554</v>
       </c>
       <c r="B242" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C242" t="s">
         <v>555</v>
@@ -8957,7 +8960,7 @@
         <v>556</v>
       </c>
       <c r="B243" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C243" t="s">
         <v>557</v>
@@ -8979,7 +8982,7 @@
         <v>559</v>
       </c>
       <c r="B244" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C244" t="s">
         <v>560</v>
@@ -9001,7 +9004,7 @@
         <v>562</v>
       </c>
       <c r="B245" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C245" t="s">
         <v>563</v>
@@ -9018,7 +9021,7 @@
         <v>564</v>
       </c>
       <c r="B246" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C246" t="s">
         <v>565</v>
@@ -9035,7 +9038,7 @@
         <v>566</v>
       </c>
       <c r="B247" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C247" t="s">
         <v>567</v>
@@ -9057,7 +9060,7 @@
         <v>569</v>
       </c>
       <c r="B248" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C248" t="s">
         <v>570</v>
@@ -9079,7 +9082,7 @@
         <v>572</v>
       </c>
       <c r="B249" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C249" t="s">
         <v>573</v>
@@ -9096,7 +9099,7 @@
         <v>574</v>
       </c>
       <c r="B250" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C250" t="s">
         <v>575</v>
@@ -9113,7 +9116,7 @@
         <v>576</v>
       </c>
       <c r="B251" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C251" t="s">
         <v>577</v>
@@ -9130,7 +9133,7 @@
         <v>578</v>
       </c>
       <c r="B252" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D252"/>
       <c r="E252"/>
@@ -9142,7 +9145,7 @@
         <v>579</v>
       </c>
       <c r="B253" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C253" t="s">
         <v>580</v>
@@ -9164,7 +9167,7 @@
         <v>582</v>
       </c>
       <c r="B254" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C254" t="s">
         <v>583</v>
@@ -9186,7 +9189,7 @@
         <v>585</v>
       </c>
       <c r="B255" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C255" t="s">
         <v>586</v>
@@ -9203,7 +9206,7 @@
         <v>587</v>
       </c>
       <c r="B256" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C256" t="s">
         <v>588</v>
@@ -9225,7 +9228,7 @@
         <v>590</v>
       </c>
       <c r="B257" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C257" t="s">
         <v>591</v>
@@ -9242,7 +9245,7 @@
         <v>592</v>
       </c>
       <c r="B258" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C258" t="s">
         <v>593</v>
@@ -9264,7 +9267,7 @@
         <v>595</v>
       </c>
       <c r="B259" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C259" t="s">
         <v>596</v>
@@ -9286,7 +9289,7 @@
         <v>598</v>
       </c>
       <c r="B260" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C260" t="s">
         <v>599</v>
@@ -9308,7 +9311,7 @@
         <v>601</v>
       </c>
       <c r="B261" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C261" t="s">
         <v>602</v>
@@ -9325,7 +9328,7 @@
         <v>603</v>
       </c>
       <c r="B262" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C262" t="s">
         <v>604</v>
@@ -9347,7 +9350,7 @@
         <v>606</v>
       </c>
       <c r="B263" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C263" t="s">
         <v>607</v>
@@ -9364,7 +9367,7 @@
         <v>608</v>
       </c>
       <c r="B264" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C264" t="s">
         <v>609</v>
@@ -9381,7 +9384,7 @@
         <v>610</v>
       </c>
       <c r="B265" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C265" t="s">
         <v>611</v>
@@ -9398,7 +9401,7 @@
         <v>612</v>
       </c>
       <c r="B266" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C266" t="s">
         <v>613</v>
@@ -9415,7 +9418,7 @@
         <v>614</v>
       </c>
       <c r="B267" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C267" t="s">
         <v>615</v>
@@ -9437,7 +9440,7 @@
         <v>617</v>
       </c>
       <c r="B268" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C268" t="s">
         <v>618</v>
@@ -9459,7 +9462,7 @@
         <v>620</v>
       </c>
       <c r="B269" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C269" t="s">
         <v>621</v>
@@ -9476,7 +9479,7 @@
         <v>622</v>
       </c>
       <c r="B270" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C270" t="s">
         <v>623</v>
@@ -9493,7 +9496,7 @@
         <v>624</v>
       </c>
       <c r="B271" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C271" t="s">
         <v>625</v>
@@ -9515,7 +9518,7 @@
         <v>627</v>
       </c>
       <c r="B272" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C272" t="s">
         <v>628</v>
@@ -9532,7 +9535,7 @@
         <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C273" t="s">
         <v>630</v>
@@ -9554,7 +9557,7 @@
         <v>632</v>
       </c>
       <c r="B274" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C274" t="s">
         <v>633</v>
@@ -9576,7 +9579,7 @@
         <v>635</v>
       </c>
       <c r="B275" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C275" t="s">
         <v>636</v>
@@ -9593,7 +9596,7 @@
         <v>637</v>
       </c>
       <c r="B276" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C276" t="s">
         <v>638</v>
@@ -9610,7 +9613,7 @@
         <v>639</v>
       </c>
       <c r="B277" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C277" t="s">
         <v>640</v>
@@ -9627,7 +9630,7 @@
         <v>641</v>
       </c>
       <c r="B278" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C278" t="s">
         <v>642</v>
@@ -9644,7 +9647,7 @@
         <v>643</v>
       </c>
       <c r="B279" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D279"/>
       <c r="E279"/>
@@ -9656,7 +9659,7 @@
         <v>644</v>
       </c>
       <c r="B280" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C280" t="s">
         <v>645</v>
@@ -9678,7 +9681,7 @@
         <v>647</v>
       </c>
       <c r="B281" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C281" t="s">
         <v>648</v>
@@ -9700,7 +9703,7 @@
         <v>650</v>
       </c>
       <c r="B282" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C282" t="s">
         <v>651</v>
@@ -9722,7 +9725,7 @@
         <v>653</v>
       </c>
       <c r="B283" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C283" t="s">
         <v>654</v>
@@ -9739,7 +9742,7 @@
         <v>655</v>
       </c>
       <c r="B284" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C284" t="s">
         <v>656</v>
@@ -9761,7 +9764,7 @@
         <v>658</v>
       </c>
       <c r="B285" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C285" t="s">
         <v>659</v>
@@ -9783,7 +9786,7 @@
         <v>661</v>
       </c>
       <c r="B286" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C286" t="s">
         <v>662</v>
@@ -9800,7 +9803,7 @@
         <v>663</v>
       </c>
       <c r="B287" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C287" t="s">
         <v>664</v>
@@ -9817,7 +9820,7 @@
         <v>665</v>
       </c>
       <c r="B288" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C288" t="s">
         <v>666</v>
@@ -9834,7 +9837,7 @@
         <v>667</v>
       </c>
       <c r="B289" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C289" t="s">
         <v>668</v>
@@ -9856,7 +9859,7 @@
         <v>670</v>
       </c>
       <c r="B290" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C290" t="s">
         <v>671</v>
@@ -9873,7 +9876,7 @@
         <v>672</v>
       </c>
       <c r="B291" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D291"/>
       <c r="E291"/>
@@ -9885,7 +9888,7 @@
         <v>673</v>
       </c>
       <c r="B292" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C292" t="s">
         <v>674</v>
@@ -9902,7 +9905,7 @@
         <v>675</v>
       </c>
       <c r="B293" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C293" t="s">
         <v>676</v>
@@ -9924,7 +9927,7 @@
         <v>678</v>
       </c>
       <c r="B294" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C294" t="s">
         <v>679</v>
@@ -9941,7 +9944,7 @@
         <v>680</v>
       </c>
       <c r="B295" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D295"/>
       <c r="E295"/>
@@ -9953,7 +9956,7 @@
         <v>681</v>
       </c>
       <c r="B296" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C296" t="s">
         <v>682</v>
@@ -9970,7 +9973,7 @@
         <v>683</v>
       </c>
       <c r="B297" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C297" t="s">
         <v>684</v>
@@ -9987,7 +9990,7 @@
         <v>685</v>
       </c>
       <c r="B298" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C298" t="s">
         <v>686</v>
@@ -10004,7 +10007,7 @@
         <v>687</v>
       </c>
       <c r="B299" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C299" t="s">
         <v>688</v>
@@ -10026,7 +10029,7 @@
         <v>690</v>
       </c>
       <c r="B300" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C300" t="s">
         <v>691</v>
@@ -10043,7 +10046,7 @@
         <v>692</v>
       </c>
       <c r="B301" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C301" t="s">
         <v>693</v>
@@ -10065,7 +10068,7 @@
         <v>695</v>
       </c>
       <c r="B302" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C302" t="s">
         <v>696</v>
@@ -10082,7 +10085,7 @@
         <v>697</v>
       </c>
       <c r="B303" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C303" t="s">
         <v>698</v>
@@ -10099,7 +10102,7 @@
         <v>699</v>
       </c>
       <c r="B304" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C304" t="s">
         <v>700</v>
@@ -10116,7 +10119,7 @@
         <v>701</v>
       </c>
       <c r="B305" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C305" t="s">
         <v>702</v>
@@ -10138,7 +10141,7 @@
         <v>704</v>
       </c>
       <c r="B306" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C306" t="s">
         <v>705</v>
@@ -10155,7 +10158,7 @@
         <v>706</v>
       </c>
       <c r="B307" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C307" t="s">
         <v>707</v>
@@ -10177,7 +10180,7 @@
         <v>709</v>
       </c>
       <c r="B308" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C308" t="s">
         <v>710</v>
@@ -10199,7 +10202,7 @@
         <v>712</v>
       </c>
       <c r="B309" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C309" t="s">
         <v>713</v>
@@ -10216,7 +10219,7 @@
         <v>714</v>
       </c>
       <c r="B310" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C310" t="s">
         <v>715</v>
@@ -10233,7 +10236,7 @@
         <v>716</v>
       </c>
       <c r="B311" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D311"/>
       <c r="E311"/>
@@ -10245,7 +10248,7 @@
         <v>717</v>
       </c>
       <c r="B312" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C312" t="s">
         <v>718</v>
@@ -10267,7 +10270,7 @@
         <v>720</v>
       </c>
       <c r="B313" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D313"/>
       <c r="E313"/>
@@ -10279,7 +10282,7 @@
         <v>721</v>
       </c>
       <c r="B314" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C314" t="s">
         <v>722</v>
@@ -10296,7 +10299,7 @@
         <v>723</v>
       </c>
       <c r="B315" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C315" t="s">
         <v>724</v>
@@ -10313,7 +10316,7 @@
         <v>725</v>
       </c>
       <c r="B316" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C316" t="s">
         <v>726</v>
@@ -10330,7 +10333,7 @@
         <v>727</v>
       </c>
       <c r="B317" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C317" t="s">
         <v>728</v>
@@ -10352,7 +10355,7 @@
         <v>730</v>
       </c>
       <c r="B318" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C318" t="s">
         <v>731</v>
@@ -10369,7 +10372,7 @@
         <v>732</v>
       </c>
       <c r="B319" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C319" t="s">
         <v>733</v>
@@ -10386,7 +10389,7 @@
         <v>734</v>
       </c>
       <c r="B320" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D320"/>
       <c r="E320"/>
@@ -10398,7 +10401,7 @@
         <v>735</v>
       </c>
       <c r="B321" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D321"/>
       <c r="E321"/>
@@ -10410,7 +10413,7 @@
         <v>736</v>
       </c>
       <c r="B322" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C322" t="s">
         <v>737</v>
@@ -10432,7 +10435,7 @@
         <v>739</v>
       </c>
       <c r="B323" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C323" t="s">
         <v>740</v>
@@ -10449,7 +10452,7 @@
         <v>741</v>
       </c>
       <c r="B324" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C324" t="s">
         <v>742</v>
@@ -10471,7 +10474,7 @@
         <v>744</v>
       </c>
       <c r="B325" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C325" t="s">
         <v>745</v>
@@ -10493,7 +10496,7 @@
         <v>747</v>
       </c>
       <c r="B326" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C326" t="s">
         <v>748</v>
@@ -10515,7 +10518,7 @@
         <v>750</v>
       </c>
       <c r="B327" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C327" t="s">
         <v>751</v>
@@ -10532,7 +10535,7 @@
         <v>752</v>
       </c>
       <c r="B328" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C328" t="s">
         <v>753</v>
@@ -10549,7 +10552,7 @@
         <v>754</v>
       </c>
       <c r="B329" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C329" t="s">
         <v>755</v>
@@ -10571,7 +10574,7 @@
         <v>757</v>
       </c>
       <c r="B330" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C330" t="s">
         <v>758</v>
@@ -10588,7 +10591,7 @@
         <v>759</v>
       </c>
       <c r="B331" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C331" t="s">
         <v>760</v>
@@ -10610,7 +10613,7 @@
         <v>762</v>
       </c>
       <c r="B332" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C332" t="s">
         <v>763</v>
@@ -10627,7 +10630,7 @@
         <v>764</v>
       </c>
       <c r="B333" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C333" t="s">
         <v>765</v>
@@ -10649,7 +10652,7 @@
         <v>767</v>
       </c>
       <c r="B334" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C334" t="s">
         <v>768</v>
@@ -10666,7 +10669,7 @@
         <v>769</v>
       </c>
       <c r="B335" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C335" t="s">
         <v>770</v>
@@ -10683,7 +10686,7 @@
         <v>771</v>
       </c>
       <c r="B336" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C336" t="s">
         <v>772</v>
@@ -10700,7 +10703,7 @@
         <v>773</v>
       </c>
       <c r="B337" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C337" t="s">
         <v>774</v>
@@ -10717,7 +10720,7 @@
         <v>775</v>
       </c>
       <c r="B338" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C338" t="s">
         <v>776</v>
@@ -10734,7 +10737,7 @@
         <v>777</v>
       </c>
       <c r="B339" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C339" t="s">
         <v>778</v>
@@ -10751,7 +10754,7 @@
         <v>779</v>
       </c>
       <c r="B340" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C340" t="s">
         <v>780</v>
@@ -10773,7 +10776,7 @@
         <v>782</v>
       </c>
       <c r="B341" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D341"/>
       <c r="E341"/>
@@ -10785,7 +10788,7 @@
         <v>783</v>
       </c>
       <c r="B342" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D342"/>
       <c r="E342"/>
@@ -10797,7 +10800,7 @@
         <v>784</v>
       </c>
       <c r="B343" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C343" t="s">
         <v>785</v>
@@ -10819,7 +10822,7 @@
         <v>787</v>
       </c>
       <c r="B344" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D344"/>
       <c r="E344"/>
@@ -10831,7 +10834,7 @@
         <v>788</v>
       </c>
       <c r="B345" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C345" t="s">
         <v>789</v>
@@ -10853,7 +10856,7 @@
         <v>791</v>
       </c>
       <c r="B346" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D346"/>
       <c r="E346"/>
@@ -10865,7 +10868,7 @@
         <v>792</v>
       </c>
       <c r="B347" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C347" t="s">
         <v>793</v>
@@ -10887,7 +10890,7 @@
         <v>795</v>
       </c>
       <c r="B348" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C348" t="s">
         <v>796</v>
@@ -10909,7 +10912,7 @@
         <v>798</v>
       </c>
       <c r="B349" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C349" t="s">
         <v>799</v>
@@ -10926,7 +10929,7 @@
         <v>800</v>
       </c>
       <c r="B350" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C350" t="s">
         <v>801</v>
@@ -10948,7 +10951,7 @@
         <v>803</v>
       </c>
       <c r="B351" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C351" t="s">
         <v>804</v>
@@ -10965,7 +10968,7 @@
         <v>805</v>
       </c>
       <c r="B352" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D352"/>
       <c r="E352"/>
@@ -10977,7 +10980,7 @@
         <v>806</v>
       </c>
       <c r="B353" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C353" t="s">
         <v>807</v>
@@ -10999,7 +11002,7 @@
         <v>809</v>
       </c>
       <c r="B354" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C354" t="s">
         <v>810</v>
@@ -11021,7 +11024,7 @@
         <v>812</v>
       </c>
       <c r="B355" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C355" t="s">
         <v>813</v>
@@ -11038,7 +11041,7 @@
         <v>814</v>
       </c>
       <c r="B356" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C356" t="s">
         <v>815</v>
@@ -11060,7 +11063,7 @@
         <v>817</v>
       </c>
       <c r="B357" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C357" t="s">
         <v>818</v>
@@ -11077,7 +11080,7 @@
         <v>819</v>
       </c>
       <c r="B358" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C358" t="s">
         <v>820</v>
@@ -11094,7 +11097,7 @@
         <v>821</v>
       </c>
       <c r="B359" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D359"/>
       <c r="E359"/>
@@ -11106,7 +11109,7 @@
         <v>822</v>
       </c>
       <c r="B360" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C360" t="s">
         <v>823</v>
@@ -11123,7 +11126,7 @@
         <v>824</v>
       </c>
       <c r="B361" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D361"/>
       <c r="E361"/>
@@ -11135,7 +11138,7 @@
         <v>825</v>
       </c>
       <c r="B362" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C362" t="s">
         <v>826</v>
@@ -11152,7 +11155,7 @@
         <v>827</v>
       </c>
       <c r="B363" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C363" t="s">
         <v>828</v>
@@ -11169,7 +11172,7 @@
         <v>829</v>
       </c>
       <c r="B364" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C364" t="s">
         <v>830</v>
@@ -11191,7 +11194,7 @@
         <v>832</v>
       </c>
       <c r="B365" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D365"/>
       <c r="E365"/>
@@ -11203,7 +11206,7 @@
         <v>833</v>
       </c>
       <c r="B366" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C366" t="s">
         <v>834</v>
@@ -11220,7 +11223,7 @@
         <v>835</v>
       </c>
       <c r="B367" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C367" t="s">
         <v>836</v>
@@ -11242,7 +11245,7 @@
         <v>838</v>
       </c>
       <c r="B368" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C368" t="s">
         <v>839</v>
@@ -11264,7 +11267,7 @@
         <v>841</v>
       </c>
       <c r="B369" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C369" t="s">
         <v>842</v>
@@ -11281,7 +11284,7 @@
         <v>843</v>
       </c>
       <c r="B370" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C370" t="s">
         <v>844</v>
@@ -11303,7 +11306,7 @@
         <v>846</v>
       </c>
       <c r="B371" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C371" t="s">
         <v>847</v>
@@ -11320,7 +11323,7 @@
         <v>848</v>
       </c>
       <c r="B372" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C372" t="s">
         <v>849</v>
@@ -11342,7 +11345,7 @@
         <v>851</v>
       </c>
       <c r="B373" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D373"/>
       <c r="E373"/>
@@ -11354,7 +11357,7 @@
         <v>852</v>
       </c>
       <c r="B374" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C374" t="s">
         <v>853</v>
@@ -11371,7 +11374,7 @@
         <v>854</v>
       </c>
       <c r="B375" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C375" t="s">
         <v>855</v>
@@ -11393,7 +11396,7 @@
         <v>857</v>
       </c>
       <c r="B376" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C376" t="s">
         <v>858</v>
@@ -11410,7 +11413,7 @@
         <v>859</v>
       </c>
       <c r="B377" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D377"/>
       <c r="E377"/>
@@ -11422,7 +11425,7 @@
         <v>860</v>
       </c>
       <c r="B378" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C378" t="s">
         <v>861</v>
@@ -11439,7 +11442,7 @@
         <v>862</v>
       </c>
       <c r="B379" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C379" t="s">
         <v>863</v>
@@ -11461,7 +11464,7 @@
         <v>865</v>
       </c>
       <c r="B380" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C380" t="s">
         <v>866</v>
@@ -11478,7 +11481,7 @@
         <v>867</v>
       </c>
       <c r="B381" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C381" t="s">
         <v>868</v>
@@ -11500,7 +11503,7 @@
         <v>870</v>
       </c>
       <c r="B382" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C382" t="s">
         <v>871</v>
@@ -11522,7 +11525,7 @@
         <v>873</v>
       </c>
       <c r="B383" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C383" t="s">
         <v>874</v>
@@ -11544,7 +11547,7 @@
         <v>876</v>
       </c>
       <c r="B384" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D384"/>
       <c r="E384"/>
@@ -11556,7 +11559,7 @@
         <v>877</v>
       </c>
       <c r="B385" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C385" t="s">
         <v>878</v>
@@ -11573,7 +11576,7 @@
         <v>879</v>
       </c>
       <c r="B386" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C386" t="s">
         <v>880</v>
@@ -11590,7 +11593,7 @@
         <v>881</v>
       </c>
       <c r="B387" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C387" t="s">
         <v>882</v>
@@ -11612,7 +11615,7 @@
         <v>884</v>
       </c>
       <c r="B388" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C388" t="s">
         <v>885</v>
@@ -11629,7 +11632,7 @@
         <v>886</v>
       </c>
       <c r="B389" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C389" t="s">
         <v>887</v>
@@ -11646,7 +11649,7 @@
         <v>888</v>
       </c>
       <c r="B390" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C390" t="s">
         <v>889</v>
@@ -11663,7 +11666,7 @@
         <v>890</v>
       </c>
       <c r="B391" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C391" t="s">
         <v>891</v>
@@ -11685,7 +11688,7 @@
         <v>893</v>
       </c>
       <c r="B392" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C392" t="s">
         <v>894</v>
@@ -11707,7 +11710,7 @@
         <v>896</v>
       </c>
       <c r="B393" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C393" t="s">
         <v>897</v>
@@ -11724,7 +11727,7 @@
         <v>898</v>
       </c>
       <c r="B394" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C394" t="s">
         <v>899</v>
@@ -11741,7 +11744,7 @@
         <v>900</v>
       </c>
       <c r="B395" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C395" t="s">
         <v>901</v>
@@ -11763,7 +11766,7 @@
         <v>903</v>
       </c>
       <c r="B396" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C396" t="s">
         <v>904</v>
@@ -11785,7 +11788,7 @@
         <v>906</v>
       </c>
       <c r="B397" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C397" t="s">
         <v>907</v>
@@ -11802,7 +11805,7 @@
         <v>908</v>
       </c>
       <c r="B398" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C398" t="s">
         <v>909</v>
@@ -11824,7 +11827,7 @@
         <v>911</v>
       </c>
       <c r="B399" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D399"/>
       <c r="E399"/>
@@ -11836,7 +11839,7 @@
         <v>912</v>
       </c>
       <c r="B400" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C400" t="s">
         <v>913</v>
@@ -11858,7 +11861,7 @@
         <v>915</v>
       </c>
       <c r="B401" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C401" t="s">
         <v>916</v>
@@ -11875,7 +11878,7 @@
         <v>917</v>
       </c>
       <c r="B402" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C402" t="s">
         <v>918</v>
@@ -11897,7 +11900,7 @@
         <v>920</v>
       </c>
       <c r="B403" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D403"/>
       <c r="E403"/>
@@ -11909,7 +11912,7 @@
         <v>921</v>
       </c>
       <c r="B404" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C404" t="s">
         <v>922</v>
@@ -11926,7 +11929,7 @@
         <v>923</v>
       </c>
       <c r="B405" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C405" t="s">
         <v>924</v>
@@ -11948,7 +11951,7 @@
         <v>926</v>
       </c>
       <c r="B406" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C406" t="s">
         <v>927</v>
@@ -11970,7 +11973,7 @@
         <v>929</v>
       </c>
       <c r="B407" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C407" t="s">
         <v>930</v>
@@ -11987,7 +11990,7 @@
         <v>931</v>
       </c>
       <c r="B408" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C408" t="s">
         <v>932</v>
@@ -12009,7 +12012,7 @@
         <v>934</v>
       </c>
       <c r="B409" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C409" t="s">
         <v>935</v>
@@ -12026,7 +12029,7 @@
         <v>936</v>
       </c>
       <c r="B410" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D410"/>
       <c r="E410"/>
@@ -12038,7 +12041,7 @@
         <v>937</v>
       </c>
       <c r="B411" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C411" t="s">
         <v>938</v>
@@ -12060,7 +12063,7 @@
         <v>940</v>
       </c>
       <c r="B412" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D412"/>
       <c r="E412"/>
@@ -12072,7 +12075,7 @@
         <v>941</v>
       </c>
       <c r="B413" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D413"/>
       <c r="E413"/>
@@ -12084,7 +12087,7 @@
         <v>942</v>
       </c>
       <c r="B414" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C414" t="s">
         <v>943</v>
@@ -12106,7 +12109,7 @@
         <v>945</v>
       </c>
       <c r="B415" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C415" t="s">
         <v>946</v>
@@ -12123,7 +12126,7 @@
         <v>947</v>
       </c>
       <c r="B416" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C416" t="s">
         <v>948</v>
@@ -12140,7 +12143,7 @@
         <v>949</v>
       </c>
       <c r="B417" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C417" t="s">
         <v>950</v>
@@ -12157,7 +12160,7 @@
         <v>951</v>
       </c>
       <c r="B418" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C418" t="s">
         <v>952</v>
@@ -12179,7 +12182,7 @@
         <v>954</v>
       </c>
       <c r="B419" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D419"/>
       <c r="E419"/>
@@ -12191,7 +12194,7 @@
         <v>955</v>
       </c>
       <c r="B420" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C420" t="s">
         <v>956</v>
@@ -12208,7 +12211,7 @@
         <v>957</v>
       </c>
       <c r="B421" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C421" t="s">
         <v>958</v>
@@ -12230,7 +12233,7 @@
         <v>960</v>
       </c>
       <c r="B422" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C422" t="s">
         <v>961</v>
@@ -12252,7 +12255,7 @@
         <v>963</v>
       </c>
       <c r="B423" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C423" t="s">
         <v>964</v>
@@ -12269,7 +12272,7 @@
         <v>965</v>
       </c>
       <c r="B424" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D424"/>
       <c r="E424"/>
@@ -12281,7 +12284,7 @@
         <v>966</v>
       </c>
       <c r="B425" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C425" t="s">
         <v>967</v>
@@ -12298,7 +12301,7 @@
         <v>968</v>
       </c>
       <c r="B426" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C426" t="s">
         <v>969</v>
@@ -12315,7 +12318,7 @@
         <v>970</v>
       </c>
       <c r="B427" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C427" t="s">
         <v>971</v>
@@ -12332,7 +12335,7 @@
         <v>972</v>
       </c>
       <c r="B428" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C428" t="s">
         <v>973</v>
@@ -12349,7 +12352,7 @@
         <v>974</v>
       </c>
       <c r="B429" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C429" t="s">
         <v>975</v>
@@ -12371,7 +12374,7 @@
         <v>977</v>
       </c>
       <c r="B430" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C430" t="s">
         <v>978</v>
@@ -12388,7 +12391,7 @@
         <v>979</v>
       </c>
       <c r="B431" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C431" t="s">
         <v>980</v>
@@ -12410,7 +12413,7 @@
         <v>982</v>
       </c>
       <c r="B432" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C432" t="s">
         <v>983</v>
@@ -12427,7 +12430,7 @@
         <v>984</v>
       </c>
       <c r="B433" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C433" t="s">
         <v>985</v>
@@ -12449,7 +12452,7 @@
         <v>987</v>
       </c>
       <c r="B434" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C434" t="s">
         <v>988</v>
@@ -12471,7 +12474,7 @@
         <v>990</v>
       </c>
       <c r="B435" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C435" t="s">
         <v>991</v>
@@ -12488,7 +12491,7 @@
         <v>992</v>
       </c>
       <c r="B436" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C436" t="s">
         <v>993</v>
@@ -12510,7 +12513,7 @@
         <v>995</v>
       </c>
       <c r="B437" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C437" t="s">
         <v>996</v>
@@ -12527,7 +12530,7 @@
         <v>997</v>
       </c>
       <c r="B438" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C438" t="s">
         <v>998</v>
@@ -12549,7 +12552,7 @@
         <v>1000</v>
       </c>
       <c r="B439" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C439" t="s">
         <v>1001</v>
@@ -12566,7 +12569,7 @@
         <v>1002</v>
       </c>
       <c r="B440" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C440" t="s">
         <v>1003</v>
@@ -12588,7 +12591,7 @@
         <v>1005</v>
       </c>
       <c r="B441" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C441" t="s">
         <v>1006</v>
@@ -12605,7 +12608,7 @@
         <v>1007</v>
       </c>
       <c r="B442" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C442" t="s">
         <v>1008</v>
@@ -12627,7 +12630,7 @@
         <v>1010</v>
       </c>
       <c r="B443" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C443" t="s">
         <v>1011</v>
@@ -12649,7 +12652,7 @@
         <v>1013</v>
       </c>
       <c r="B444" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D444"/>
       <c r="E444"/>
@@ -12661,7 +12664,7 @@
         <v>1014</v>
       </c>
       <c r="B445" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C445" t="s">
         <v>1015</v>
@@ -12678,7 +12681,7 @@
         <v>1016</v>
       </c>
       <c r="B446" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C446" t="s">
         <v>1017</v>
@@ -12695,7 +12698,7 @@
         <v>1018</v>
       </c>
       <c r="B447" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C447" t="s">
         <v>1019</v>
@@ -12712,7 +12715,7 @@
         <v>1020</v>
       </c>
       <c r="B448" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C448" t="s">
         <v>1021</v>
@@ -12729,7 +12732,7 @@
         <v>1022</v>
       </c>
       <c r="B449" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C449" t="s">
         <v>1023</v>
@@ -12751,7 +12754,7 @@
         <v>1025</v>
       </c>
       <c r="B450" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C450" t="s">
         <v>1026</v>
@@ -12768,7 +12771,7 @@
         <v>1027</v>
       </c>
       <c r="B451" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C451" t="s">
         <v>1028</v>
@@ -12785,7 +12788,7 @@
         <v>1029</v>
       </c>
       <c r="B452" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C452" t="s">
         <v>1030</v>
@@ -12802,7 +12805,7 @@
         <v>1031</v>
       </c>
       <c r="B453" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C453" t="s">
         <v>1032</v>
@@ -12824,7 +12827,7 @@
         <v>1034</v>
       </c>
       <c r="B454" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C454" t="s">
         <v>1035</v>
@@ -12846,7 +12849,7 @@
         <v>1037</v>
       </c>
       <c r="B455" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C455" t="s">
         <v>1038</v>
@@ -12868,7 +12871,7 @@
         <v>1040</v>
       </c>
       <c r="B456" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C456" t="s">
         <v>1041</v>
@@ -12890,7 +12893,7 @@
         <v>1043</v>
       </c>
       <c r="B457" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C457" t="s">
         <v>1044</v>
@@ -12907,7 +12910,7 @@
         <v>1045</v>
       </c>
       <c r="B458" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D458"/>
       <c r="E458"/>
@@ -12919,7 +12922,7 @@
         <v>1046</v>
       </c>
       <c r="B459" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C459" t="s">
         <v>1047</v>
@@ -12936,7 +12939,7 @@
         <v>1048</v>
       </c>
       <c r="B460" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D460"/>
       <c r="E460"/>
@@ -12948,7 +12951,7 @@
         <v>1049</v>
       </c>
       <c r="B461" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C461" t="s">
         <v>1050</v>
@@ -12970,7 +12973,7 @@
         <v>1052</v>
       </c>
       <c r="B462" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C462" t="s">
         <v>1053</v>
@@ -12987,7 +12990,7 @@
         <v>1054</v>
       </c>
       <c r="B463" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C463" t="s">
         <v>1055</v>
@@ -13009,7 +13012,7 @@
         <v>1057</v>
       </c>
       <c r="B464" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D464"/>
       <c r="E464"/>
@@ -13021,7 +13024,7 @@
         <v>1058</v>
       </c>
       <c r="B465" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C465" t="s">
         <v>1059</v>
@@ -13043,7 +13046,7 @@
         <v>1061</v>
       </c>
       <c r="B466" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C466" t="s">
         <v>1062</v>
@@ -13060,7 +13063,7 @@
         <v>1063</v>
       </c>
       <c r="B467" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C467" t="s">
         <v>1064</v>
@@ -13077,7 +13080,7 @@
         <v>1065</v>
       </c>
       <c r="B468" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C468" t="s">
         <v>1066</v>
@@ -13094,7 +13097,7 @@
         <v>1067</v>
       </c>
       <c r="B469" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C469" t="s">
         <v>1068</v>
@@ -13111,7 +13114,7 @@
         <v>1069</v>
       </c>
       <c r="B470" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C470" t="s">
         <v>1070</v>
@@ -13128,7 +13131,7 @@
         <v>1071</v>
       </c>
       <c r="B471" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C471" t="s">
         <v>1072</v>
@@ -13145,7 +13148,7 @@
         <v>1073</v>
       </c>
       <c r="B472" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C472" t="s">
         <v>1074</v>
@@ -13167,7 +13170,7 @@
         <v>1076</v>
       </c>
       <c r="B473" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D473"/>
       <c r="E473"/>
@@ -13179,7 +13182,7 @@
         <v>1077</v>
       </c>
       <c r="B474" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C474" t="s">
         <v>1078</v>
@@ -13196,7 +13199,7 @@
         <v>1079</v>
       </c>
       <c r="B475" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C475" t="s">
         <v>1080</v>
@@ -13218,7 +13221,7 @@
         <v>1082</v>
       </c>
       <c r="B476" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C476" t="s">
         <v>1083</v>
@@ -13235,7 +13238,7 @@
         <v>1084</v>
       </c>
       <c r="B477" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C477" t="s">
         <v>1085</v>
@@ -13257,7 +13260,7 @@
         <v>1087</v>
       </c>
       <c r="B478" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C478" t="s">
         <v>1088</v>
@@ -13274,7 +13277,7 @@
         <v>1089</v>
       </c>
       <c r="B479" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D479"/>
       <c r="E479"/>
@@ -13286,7 +13289,7 @@
         <v>1090</v>
       </c>
       <c r="B480" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C480" t="s">
         <v>1091</v>
@@ -13303,7 +13306,7 @@
         <v>1092</v>
       </c>
       <c r="B481" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C481" t="s">
         <v>1093</v>
@@ -13320,7 +13323,7 @@
         <v>1094</v>
       </c>
       <c r="B482" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C482" t="s">
         <v>1095</v>
@@ -13342,7 +13345,7 @@
         <v>1097</v>
       </c>
       <c r="B483" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D483"/>
       <c r="E483"/>
@@ -13354,7 +13357,7 @@
         <v>1098</v>
       </c>
       <c r="B484" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C484" t="s">
         <v>1099</v>
@@ -13376,7 +13379,7 @@
         <v>1101</v>
       </c>
       <c r="B485" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C485" t="s">
         <v>1102</v>
@@ -13393,7 +13396,7 @@
         <v>1103</v>
       </c>
       <c r="B486" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C486" t="s">
         <v>1104</v>
@@ -13410,7 +13413,7 @@
         <v>1105</v>
       </c>
       <c r="B487" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C487" t="s">
         <v>1106</v>
@@ -13427,7 +13430,7 @@
         <v>1107</v>
       </c>
       <c r="B488" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C488" t="s">
         <v>1108</v>
@@ -13444,7 +13447,7 @@
         <v>1109</v>
       </c>
       <c r="B489" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C489" t="s">
         <v>1110</v>
@@ -13466,7 +13469,7 @@
         <v>1112</v>
       </c>
       <c r="B490" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C490" t="s">
         <v>1113</v>
@@ -13483,7 +13486,7 @@
         <v>1114</v>
       </c>
       <c r="B491" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C491" t="s">
         <v>1115</v>
@@ -13500,7 +13503,7 @@
         <v>1116</v>
       </c>
       <c r="B492" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C492" t="s">
         <v>1117</v>
@@ -13517,7 +13520,7 @@
         <v>1118</v>
       </c>
       <c r="B493" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C493" t="s">
         <v>1119</v>
@@ -13534,7 +13537,7 @@
         <v>1120</v>
       </c>
       <c r="B494" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C494" t="s">
         <v>1121</v>
@@ -13556,7 +13559,7 @@
         <v>1123</v>
       </c>
       <c r="B495" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C495" t="s">
         <v>1124</v>
@@ -13578,7 +13581,7 @@
         <v>1126</v>
       </c>
       <c r="B496" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C496" t="s">
         <v>1127</v>
@@ -13595,7 +13598,7 @@
         <v>1128</v>
       </c>
       <c r="B497" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C497" t="s">
         <v>1129</v>
@@ -13612,7 +13615,7 @@
         <v>1130</v>
       </c>
       <c r="B498" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C498" t="s">
         <v>1131</v>
@@ -13634,7 +13637,7 @@
         <v>1133</v>
       </c>
       <c r="B499" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C499" t="s">
         <v>1134</v>
@@ -13651,63 +13654,65 @@
         <v>1135</v>
       </c>
       <c r="B500" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D500"/>
+        <v>1470</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1136</v>
+      </c>
       <c r="E500"/>
       <c r="G500"/>
       <c r="H500"/>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B501" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C501" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D501" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E501"/>
       <c r="F501" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G501" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H501"/>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B502" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C502" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D502" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E502"/>
       <c r="F502" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G502" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="H502"/>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B503" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C503" t="s">
         <v>948</v>
@@ -13721,16 +13726,16 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B504" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C504" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D504" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E504"/>
       <c r="G504"/>
@@ -13738,16 +13743,16 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B505" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C505" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D505" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="E505"/>
       <c r="G505"/>
@@ -13755,32 +13760,32 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B506" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C506" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D506" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="E506"/>
       <c r="F506" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G506" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B507" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D507"/>
       <c r="E507"/>
@@ -13789,10 +13794,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B508" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D508"/>
       <c r="E508"/>
@@ -13801,16 +13806,16 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B509" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C509" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D509" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E509"/>
       <c r="G509"/>
@@ -13818,38 +13823,38 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B510" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C510" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D510" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E510"/>
       <c r="F510" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="G510" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B511" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C511" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D511" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="E511"/>
       <c r="G511"/>
@@ -13857,38 +13862,38 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B512" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C512" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D512" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E512"/>
       <c r="F512" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G512" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B513" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C513" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D513" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E513"/>
       <c r="G513"/>
@@ -13896,38 +13901,38 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B514" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C514" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D514" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E514"/>
       <c r="F514" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G514" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B515" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C515" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D515" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E515"/>
       <c r="G515"/>
@@ -13935,16 +13940,16 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B516" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C516" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D516" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E516"/>
       <c r="G516"/>
@@ -13952,60 +13957,60 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B517" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C517" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D517" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E517"/>
       <c r="F517" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G517" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B518" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C518" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D518" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E518"/>
       <c r="F518" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G518" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B519" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C519" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D519" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E519"/>
       <c r="G519"/>
@@ -14013,38 +14018,38 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B520" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C520" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D520" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E520"/>
       <c r="F520" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G520" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="H520"/>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B521" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C521" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D521" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E521"/>
       <c r="G521"/>
@@ -14052,60 +14057,60 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B522" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C522" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D522" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E522"/>
       <c r="F522" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="G522" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="H522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B523" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C523" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D523" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E523"/>
       <c r="F523" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="G523" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="H523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B524" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C524" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D524" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E524"/>
       <c r="G524"/>
@@ -14113,16 +14118,16 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B525" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C525" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D525" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E525"/>
       <c r="G525"/>
@@ -14130,16 +14135,16 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B526" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C526" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D526" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E526"/>
       <c r="G526"/>
@@ -14147,16 +14152,16 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B527" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C527" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D527" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E527"/>
       <c r="G527"/>
@@ -14164,38 +14169,38 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B528" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C528" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D528" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E528"/>
       <c r="F528" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G528" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H528"/>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B529" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C529" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D529" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E529"/>
       <c r="G529"/>
@@ -14203,38 +14208,38 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B530" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C530" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D530" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E530"/>
       <c r="F530" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G530" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H530"/>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B531" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C531" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D531" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E531"/>
       <c r="G531"/>
@@ -14242,16 +14247,16 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B532" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C532" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D532" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E532"/>
       <c r="G532"/>
@@ -14259,38 +14264,38 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B533" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C533" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D533" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E533"/>
       <c r="F533" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="G533" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H533"/>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B534" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C534" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D534" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E534"/>
       <c r="G534"/>
@@ -14298,16 +14303,16 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B535" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C535" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D535" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E535"/>
       <c r="G535"/>
@@ -14315,38 +14320,38 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B536" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C536" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D536" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E536"/>
       <c r="F536" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G536" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B537" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C537" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D537" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E537"/>
       <c r="G537"/>
@@ -14354,32 +14359,32 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B538" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C538" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D538" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E538"/>
       <c r="F538" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G538" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H538"/>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B539" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C539" t="s">
         <v>773</v>
@@ -14393,60 +14398,60 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B540" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C540" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D540" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E540"/>
       <c r="F540" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G540" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H540"/>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B541" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C541" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D541" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E541"/>
       <c r="F541" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G541" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H541"/>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B542" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C542" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D542" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E542"/>
       <c r="G542"/>
@@ -14454,16 +14459,16 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B543" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C543" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D543" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E543"/>
       <c r="G543"/>
@@ -14471,38 +14476,38 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B544" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C544" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D544" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E544"/>
       <c r="F544" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G544" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="H544"/>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B545" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C545" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D545" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E545"/>
       <c r="G545"/>
@@ -14510,16 +14515,16 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B546" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C546" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D546" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E546"/>
       <c r="G546"/>
@@ -14527,16 +14532,16 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B547" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C547" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D547" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E547"/>
       <c r="G547"/>
@@ -14544,10 +14549,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B548" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D548"/>
       <c r="E548"/>
@@ -14556,32 +14561,32 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B549" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C549" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D549" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E549"/>
       <c r="F549" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G549" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B550" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D550"/>
       <c r="E550"/>
@@ -14590,16 +14595,16 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B551" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C551" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D551" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E551"/>
       <c r="G551"/>
@@ -14607,38 +14612,38 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B552" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C552" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D552" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E552"/>
       <c r="F552" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G552" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H552"/>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B553" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C553" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D553" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E553"/>
       <c r="G553"/>
@@ -14646,16 +14651,16 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B554" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C554" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D554" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E554"/>
       <c r="G554"/>
@@ -14663,38 +14668,38 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B555" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C555" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D555" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E555"/>
       <c r="F555" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G555" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B556" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C556" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D556" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E556"/>
       <c r="G556"/>
@@ -14702,10 +14707,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B557" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D557"/>
       <c r="E557"/>
@@ -14714,16 +14719,16 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B558" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C558" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D558" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E558"/>
       <c r="G558"/>
@@ -14731,16 +14736,16 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B559" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C559" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D559" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E559"/>
       <c r="G559"/>
@@ -14748,16 +14753,16 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B560" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C560" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D560" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E560"/>
       <c r="G560"/>
@@ -14765,16 +14770,16 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B561" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C561" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D561" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E561"/>
       <c r="G561"/>
@@ -14782,60 +14787,60 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B562" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C562" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D562" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E562"/>
       <c r="F562" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="G562" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H562"/>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B563" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C563" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D563" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E563"/>
       <c r="F563" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="G563" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H563"/>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B564" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C564" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D564" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E564"/>
       <c r="G564"/>
@@ -14843,16 +14848,16 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B565" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C565" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D565" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E565"/>
       <c r="G565"/>
@@ -14860,16 +14865,16 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B566" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C566" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D566" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E566"/>
       <c r="G566"/>
@@ -14877,38 +14882,38 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B567" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C567" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D567" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E567"/>
       <c r="F567" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G567" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H567"/>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B568" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C568" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D568" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E568"/>
       <c r="G568"/>
@@ -14916,54 +14921,54 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B569" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C569" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D569" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E569"/>
       <c r="F569" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G569" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H569"/>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B570" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C570" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D570" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E570"/>
       <c r="F570" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="G570" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H570"/>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B571" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D571"/>
       <c r="E571"/>
@@ -14972,38 +14977,38 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B572" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C572" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D572" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E572"/>
       <c r="F572" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="G572" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H572"/>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B573" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C573" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D573" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E573"/>
       <c r="G573"/>
@@ -15011,16 +15016,16 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B574" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C574" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D574" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E574"/>
       <c r="G574"/>
@@ -15028,32 +15033,32 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B575" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C575" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D575" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E575"/>
       <c r="F575" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G575" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H575"/>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B576" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D576"/>
       <c r="E576"/>
@@ -15062,16 +15067,16 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B577" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C577" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D577" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E577"/>
       <c r="G577"/>
@@ -15079,10 +15084,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B578" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D578"/>
       <c r="E578"/>
@@ -15091,10 +15096,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B579" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D579"/>
       <c r="E579"/>
@@ -15103,38 +15108,38 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B580" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C580" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D580" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E580"/>
       <c r="F580" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G580" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H580"/>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B581" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C581" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D581" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E581"/>
       <c r="G581"/>
@@ -15142,10 +15147,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B582" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D582"/>
       <c r="E582"/>
@@ -15154,16 +15159,16 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B583" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C583" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D583" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E583"/>
       <c r="G583"/>
@@ -15171,98 +15176,98 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B584" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C584" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D584" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E584"/>
       <c r="F584" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G584" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B585" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C585" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D585" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E585"/>
       <c r="F585" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G585" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B586" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C586" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D586" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E586"/>
       <c r="F586" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G586" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B587" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C587" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="D587" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E587"/>
       <c r="F587" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G587" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H587"/>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B588" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D588"/>
       <c r="E588"/>
@@ -15271,38 +15276,38 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B589" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C589" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D589" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E589"/>
       <c r="F589" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="G589" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H589"/>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B590" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C590" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D590" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E590"/>
       <c r="G590"/>
@@ -15310,16 +15315,16 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B591" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C591" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D591" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E591"/>
       <c r="G591"/>
@@ -15327,16 +15332,16 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B592" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C592" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D592" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E592"/>
       <c r="G592"/>
@@ -15344,16 +15349,16 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B593" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C593" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D593" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E593"/>
       <c r="G593"/>
@@ -15361,38 +15366,38 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B594" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C594" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D594" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E594"/>
       <c r="F594" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G594" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B595" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C595" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D595" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E595"/>
       <c r="G595"/>
@@ -15400,32 +15405,32 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B596" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C596" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D596" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E596"/>
       <c r="F596" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G596" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H596"/>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B597" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D597"/>
       <c r="E597"/>
@@ -15434,16 +15439,16 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B598" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C598" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D598" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E598"/>
       <c r="G598"/>
@@ -15451,38 +15456,38 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B599" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C599" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D599" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E599"/>
       <c r="F599" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G599" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H599"/>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B600" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C600" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D600" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E600"/>
       <c r="G600"/>
@@ -15490,10 +15495,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B601" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D601"/>
       <c r="E601"/>
@@ -15502,16 +15507,16 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B602" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C602" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D602" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E602"/>
       <c r="G602"/>
@@ -15519,82 +15524,82 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B603" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C603" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D603" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E603"/>
       <c r="F603" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G603" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H603"/>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B604" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C604" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D604" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E604"/>
       <c r="F604" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G604" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B605" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C605" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D605" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E605"/>
       <c r="F605" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G605" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H605"/>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B606" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C606" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D606" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E606"/>
       <c r="G606"/>
@@ -15602,38 +15607,38 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B607" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C607" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D607" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E607"/>
       <c r="F607" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G607" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H607"/>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B608" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C608" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D608" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E608"/>
       <c r="G608"/>
@@ -15641,16 +15646,16 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B609" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C609" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D609" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E609"/>
       <c r="G609"/>
@@ -15658,16 +15663,16 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B610" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C610" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D610" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E610"/>
       <c r="G610"/>
@@ -15675,54 +15680,54 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B611" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C611" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D611" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E611"/>
       <c r="F611" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G611" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H611"/>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B612" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C612" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D612" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E612"/>
       <c r="F612" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G612" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H612"/>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B613" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D613"/>
       <c r="E613"/>
@@ -15731,16 +15736,16 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B614" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C614" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D614" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E614"/>
       <c r="G614"/>
@@ -15748,10 +15753,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B615" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D615"/>
       <c r="E615"/>
@@ -15760,16 +15765,16 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B616" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C616" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D616" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E616"/>
       <c r="G616"/>
@@ -15777,16 +15782,16 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B617" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C617" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D617" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E617"/>
       <c r="G617"/>
@@ -15794,38 +15799,38 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B618" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C618" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D618" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E618"/>
       <c r="F618" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G618" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B619" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C619" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D619" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E619"/>
       <c r="G619"/>
@@ -15833,38 +15838,38 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B620" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C620" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D620" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E620"/>
       <c r="F620" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G620" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B621" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C621" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D621" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E621"/>
       <c r="G621"/>
@@ -15872,16 +15877,16 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B622" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C622" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D622" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E622"/>
       <c r="G622"/>
@@ -15889,16 +15894,16 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B623" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C623" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D623" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E623"/>
       <c r="G623"/>
@@ -15906,32 +15911,32 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B624" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C624" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="D624" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E624"/>
       <c r="F624" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G624" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B625" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D625"/>
       <c r="E625"/>
@@ -15940,54 +15945,54 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B626" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C626" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D626" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E626"/>
       <c r="F626" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G626" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H626"/>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B627" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C627" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D627" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E627"/>
       <c r="F627" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G627" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B628" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D628"/>
       <c r="E628"/>
@@ -15996,16 +16001,16 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B629" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C629" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D629" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E629"/>
       <c r="G629"/>
@@ -16013,16 +16018,16 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B630" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C630" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D630" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E630"/>
       <c r="G630"/>
@@ -16030,10 +16035,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B631" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D631"/>
       <c r="E631"/>
@@ -16042,38 +16047,38 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B632" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C632" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D632" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E632"/>
       <c r="F632" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G632" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H632"/>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B633" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C633" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D633" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="E633"/>
       <c r="G633"/>
@@ -16081,60 +16086,60 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B634" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C634" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D634" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E634"/>
       <c r="F634" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G634" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H634"/>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B635" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C635" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D635" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="E635"/>
       <c r="F635" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G635" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H635"/>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B636" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C636" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D636" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E636"/>
       <c r="G636"/>
@@ -16142,16 +16147,16 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B637" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C637" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D637" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="E637"/>
       <c r="G637"/>
@@ -16159,16 +16164,16 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B638" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C638" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D638" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E638"/>
       <c r="G638"/>
@@ -16176,16 +16181,16 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B639" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C639" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D639" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E639"/>
       <c r="G639"/>
@@ -16193,16 +16198,16 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B640" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C640" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D640" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E640"/>
       <c r="G640"/>
@@ -16210,10 +16215,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B641" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D641"/>
       <c r="E641"/>
@@ -16222,16 +16227,16 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B642" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C642" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D642" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E642"/>
       <c r="G642"/>
@@ -16239,16 +16244,16 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B643" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C643" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D643" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E643"/>
       <c r="G643"/>
@@ -16256,16 +16261,16 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B644" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C644" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D644" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="E644"/>
       <c r="G644"/>
@@ -16273,16 +16278,16 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B645" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C645" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D645" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E645"/>
       <c r="G645"/>
@@ -16290,16 +16295,16 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B646" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C646" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D646" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="E646"/>
       <c r="G646"/>
@@ -16307,16 +16312,16 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B647" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C647" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D647" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E647"/>
       <c r="G647"/>
@@ -16324,32 +16329,32 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B648" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C648" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D648" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E648"/>
       <c r="F648" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G648" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H648"/>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B649" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D649"/>
       <c r="E649"/>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Mod_Korean/Lang/KR/Game/Backer.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
